--- a/таблица_цифровых_компетенций.xlsx
+++ b/таблица_цифровых_компетенций.xlsx
@@ -18,6 +18,7 @@
     <sheet name="универы" sheetId="8" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'главная таблица'!$A$1:$S$140</definedName>
     <definedName function="false" hidden="true" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">'Финальный лист'!$A$1:$I$137</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'главная таблица'!$C$1:$R$140</definedName>
   </definedNames>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4769" uniqueCount="1642">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4769" uniqueCount="1641">
   <si>
     <t xml:space="preserve">Уровень подготовки</t>
   </si>
@@ -140,7 +141,7 @@
 Event-менеджер
 HR-аналитик
 IR-специалист (invest-relations)
-Talent-менеджер (Менеджер по управлению$</t>
+Talent-менеджер (Менеджер по управлению</t>
   </si>
   <si>
     <t xml:space="preserve">Аккаунт-менеджер
@@ -251,7 +252,7 @@
 Visio	
 Проектирование API	
 CRM-система	
-1С $</t>
+1С</t>
   </si>
   <si>
     <t xml:space="preserve">ОПК ОС-3 способность работать с компьютером как средством управления информацией, работать с информацией из различных источников, в том числе в глобальных компьютерных сетях
@@ -393,7 +394,7 @@
 КонсультантПлюс	
 SQL	
 http://pravo.gov.ru	
-Outlook$</t>
+Outlook</t>
   </si>
   <si>
     <t xml:space="preserve">ОПК-6 способность решать стандартные задачи профессиональной деятельности на основе информационной и библиографической культуры с применением информационно-коммуникационных технологий и с учетом основных требований информационной безопасности</t>
@@ -596,7 +597,7 @@
 Специалист отдела внутреннего контроля и аудита
 Специалист отдела организации документооборота
 Специалист отдела цифрового муниципального управления
-Юрист$
+Юрист
 </t>
   </si>
   <si>
@@ -668,7 +669,7 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">1С / Python / Яндекс 360, МойОфис, LibreOffice, "офисный пакет" / Moodle (СДО Академии) / YouGile / postgresqlPro / directum / Bitrix24 / Гарант / Интернет-ресурсы: kremlin.ru e-library pravo.gov.ru / Visio$</t>
+    <t xml:space="preserve">1С / Python / Яндекс 360, МойОфис, LibreOffice, "офисный пакет" / Moodle (СДО Академии) / YouGile / postgresqlPro / directum / Bitrix24 / Гарант / Интернет-ресурсы: kremlin.ru e-library pravo.gov.ru / Visio</t>
   </si>
   <si>
     <t xml:space="preserve">Заочная</t>
@@ -742,7 +743,7 @@
 2) Распознавание текста на изображениях
 3) Обнаружение поддельных новостей искусственной нейронной сетью в исторических данных
 4) Разведочный анализ данных
-5) Прогноз оттока банковских клиентов$</t>
+5) Прогноз оттока банковских клиентов</t>
   </si>
   <si>
     <t xml:space="preserve">Общественные связи и медиакоммуникации в государственном и муниципальном управлении</t>
@@ -1185,7 +1186,7 @@
     <t xml:space="preserve">Институт права и национальной безопасности</t>
   </si>
   <si>
-    <t xml:space="preserve">Безопасность сферы государственных услуг$</t>
+    <t xml:space="preserve">Безопасность сферы государственных услуг</t>
   </si>
   <si>
     <t xml:space="preserve">Аналитик рыночного риска
@@ -1347,7 +1348,7 @@
 Телеведущий 
 Тележурналист
 Телерепортер 
-Технический редактор$
+Технический редактор
 </t>
   </si>
   <si>
@@ -1416,7 +1417,7 @@
 Телерепортер 
 Технический редактор 
 Фотожурналист
-Художественный редактор$
+Художественный редактор
 </t>
   </si>
   <si>
@@ -1585,7 +1586,7 @@
   </si>
   <si>
     <t xml:space="preserve">ОПК-6 Способен использовать в профессиональной деятельности современные технические средства и информационно-коммуникационные технологии
-СК ОС LA-1Способность использовать современное программное обеспечение и электронные ресурсы в планировании и реализации гуманитарных цифровых проектов$</t>
+СК ОС LA-1Способность использовать современное программное обеспечение и электронные ресурсы в планировании и реализации гуманитарных цифровых проектов</t>
   </si>
   <si>
     <t xml:space="preserve">Фотография в медиа. Основы фотографии
@@ -1599,7 +1600,7 @@
 2) Разведочный анализ данных
 3) Базовые инструменты предварительной обработки данных
 4) Влияние обработки данных на точность прогноза
-5) Сегментация изображений$</t>
+5) Сегментация изображений</t>
   </si>
   <si>
     <t xml:space="preserve">Python /  Яндекс 360, МойОфис, LibreOffice, "офисный пакет"  / Moodle (СДО Академии) / ФотоМАСТЕР / Gimp / iMovie / PosgresPro</t>
@@ -1626,7 +1627,7 @@
 Специалист по решению проблем
 Экономист-международник
 Этнограф
-Этнолог$</t>
+Этнолог</t>
   </si>
   <si>
     <t xml:space="preserve">Аналитик  
@@ -1705,7 +1706,7 @@
 Специалист по решению проблем
 Экономист-международник
 Этнограф
-Этнолог$</t>
+Этнолог</t>
   </si>
   <si>
     <t xml:space="preserve">Международное гуманитарное сотрудничество (с углубленным изучением иностранных языков)</t>
@@ -1726,7 +1727,7 @@
 Специалист по решению проблем
 Экономист-международник
 Этнограф
-Этнолог$</t>
+Этнолог</t>
   </si>
   <si>
     <t xml:space="preserve">GR-менеджер
@@ -1737,7 +1738,7 @@
 Специалист в области международных отношений
 Специалист по вопросам межконфессиональных отношений 
 Этнограф
-Этнолог$</t>
+Этнолог</t>
   </si>
   <si>
     <t xml:space="preserve">1) Статистический анализ показателей клиентов банка
@@ -1765,7 +1766,7 @@
 Специалист по решению проблем
 Экономист-международник
 Этнограф
-Этнолог$</t>
+Этнолог</t>
   </si>
   <si>
     <t xml:space="preserve">Управление международными проектами и программами (с углубленным изучением иностранных языков)</t>
@@ -1776,7 +1777,7 @@
 Менеджер по межкультурной коммуникации
 Менеджер проекта
 Специалист в области международных отношений
-Специалист по вопросам межконфессиональных отношений$
+Специалист по вопросам межконфессиональных отношений
 </t>
   </si>
   <si>
@@ -1795,7 +1796,7 @@
 Менеджер по межкультурной коммуникации
 Менеджер проекта
 Специалист в области международных отношений
-Специалист по вопросам межконфессиональных отношений$</t>
+Специалист по вопросам межконфессиональных отношений</t>
   </si>
   <si>
     <t xml:space="preserve">1С / Python / Яндекс 360, МойОфис, LibreOffice, "офисный пакет" / Moodle (СДО Академии) / YouGile / postgresqlPro / directum / Bitrix24 / Гарант / Интернет-ресурсы: kremlin.ru e-library pravo.gov.ru миркарт.рф / Visio</t>
@@ -1820,7 +1821,7 @@
 Специалист по решению проблем
 Экономист-международник
 Этнограф
-Этнолог$</t>
+Этнолог</t>
   </si>
   <si>
     <t xml:space="preserve">Аналитик  
@@ -1859,7 +1860,7 @@
 Специалист в области международных отношений
 Специалист по вопросам межконфессиональных отношений 
 Экономист-международник
-$</t>
+</t>
   </si>
   <si>
     <t xml:space="preserve">ОПК-2 Способен применять информационно-коммуникационные технологии и программные средства для решения стандартных задач профессиональной деятельности на основе информационной и библиографической культуры и требований информационной безопасности</t>
@@ -1906,7 +1907,7 @@
 Писатель
 Редактор 
 Переводчик
-Филолог$</t>
+Филолог</t>
   </si>
   <si>
     <t xml:space="preserve">MS Office 	
@@ -1923,7 +1924,7 @@
 5) Распознавание текста на изображениях</t>
   </si>
   <si>
-    <t xml:space="preserve">Яндекс 360, МойОфис, LibreOffice, "офисный пакет" / Moodle (СДО Академии) / Miro / Promt / mindmeister или Coggle / inflexio.ru / ресурсы аналогичные rsl.ru / Python$</t>
+    <t xml:space="preserve">Яндекс 360, МойОфис, LibreOffice, "офисный пакет" / Moodle (СДО Академии) / Miro / Promt / mindmeister или Coggle / inflexio.ru / ресурсы аналогичные rsl.ru / Python</t>
   </si>
   <si>
     <t xml:space="preserve">История</t>
@@ -1937,7 +1938,7 @@
 Исторический консультант 
 Исторический реконструктор 
 Источниковед
-Политолог$</t>
+Политолог</t>
   </si>
   <si>
     <t xml:space="preserve">MS Office 	
@@ -1955,7 +1956,7 @@
 4) Обнаружение поддельных новостей искусственной нейронной сетью в исторических данных</t>
   </si>
   <si>
-    <t xml:space="preserve">YouGile / Яндекс 360, МойОфис, LibreOffice, "офисный пакет" / Moodle (СДО Академии) / Дополнительно / postgresqlPro / 1С / Python$</t>
+    <t xml:space="preserve">YouGile / Яндекс 360, МойОфис, LibreOffice, "офисный пакет" / Moodle (СДО Академии) / Дополнительно / postgresqlPro / 1С / Python</t>
   </si>
   <si>
     <t xml:space="preserve">Факультет маркетинга и международного сотрудничества</t>
@@ -2018,7 +2019,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">YouGile / Яндекс 360, МойОфис, LibreOffice, "офисный пакет" / Moodle (СДО Академии) / Дополнительно / postgresqlPro / 1С / Python /$</t>
+    <t xml:space="preserve">YouGile / Яндекс 360, МойОфис, LibreOffice, "офисный пакет" / Moodle (СДО Академии) / Дополнительно / postgresqlPro / 1С / Python /</t>
   </si>
   <si>
     <t xml:space="preserve">минимальные знания по программированию
@@ -2190,7 +2191,7 @@
 Event-менеджер
 HR-аналитик
 IR-специалист (invest-relations)
-Talent-менеджер (Менеджер по управлению$</t>
+Talent-менеджер (Менеджер по управлению</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -2237,7 +2238,7 @@
 Антикризисный управляющий
 БИМ-менеджер (BIM-manager)
 Специалист системы менеджмента качества
-Управляющий недвижимостью$
+Управляющий недвижимостью
 </t>
   </si>
   <si>
@@ -2291,7 +2292,7 @@
 Event-менеджер
 HR-аналитик
 IR-специалист (invest-relations)
-Talent-менеджер (Менеджер$</t>
+Talent-менеджер (Менеджер</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -2388,7 +2389,7 @@
 Event-менеджер
 HR-аналитик
 IR-специалист (invest-relations)
-Talent-менеджер (Менеджер$</t>
+Talent-менеджер (Менеджер</t>
   </si>
   <si>
     <t xml:space="preserve">Аналитик рыночного риска
@@ -2579,7 +2580,7 @@
 Специалист по планированию
 Финансовый менеджер
 HR-аналитик
-$</t>
+</t>
   </si>
   <si>
     <t xml:space="preserve">Информационные технологии в менеджменте
@@ -2623,7 +2624,7 @@
 BTL-менеджер
 CRM-менеджер
 Development manager (менеджер по развитию)
-Talent-менеджер (Менеджер$</t>
+Talent-менеджер (Менеджер</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -2734,7 +2735,7 @@
 Event-менеджер
 HR-аналитик
 IR-специалист (invest-relations)
-Talent-менеджер (Менеджер$</t>
+Talent-менеджер (Менеджер</t>
   </si>
   <si>
     <t xml:space="preserve">Бренд-менеджер
@@ -2790,7 +2791,7 @@
 8) Разведочный анализ данных</t>
   </si>
   <si>
-    <t xml:space="preserve">Факультет «Менеджмент спортивной и туристской индустрии»$</t>
+    <t xml:space="preserve">Факультет «Менеджмент спортивной и туристской индустрии»</t>
   </si>
   <si>
     <t xml:space="preserve">Менеджмент спортивной индустрии</t>
@@ -2868,7 +2869,7 @@
 Event-менеджер
 HR-аналитик
 IR-специалист (invest-relations)
-Talent-менеджер (Менеджер$</t>
+Talent-менеджер (Менеджер</t>
   </si>
   <si>
     <t xml:space="preserve">Аналитик рыночного риска
@@ -3020,10 +3021,10 @@
   <si>
     <t xml:space="preserve">1) Статистический анализ показателей клиентов банка
 2) Разведочный анализ данных
-3) Сегментация изображений$</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Факультет инженерного менеджмента$</t>
+3) Сегментация изображений</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Факультет инженерного менеджмента</t>
   </si>
   <si>
     <t xml:space="preserve">Производственный менеджмент</t>
@@ -3514,7 +3515,7 @@
 Эксперт по дактилоскопической экспертизе
 Эксперт по лингвистической экспертизе
 Эксперт портретной экспертизы
-Юрист$
+Юрист
 </t>
   </si>
   <si>
@@ -3805,7 +3806,7 @@
 Outlook</t>
   </si>
   <si>
-    <t xml:space="preserve">СК ОС LA Способность использовать современное программное обеспечение и электронные ресурсы в планировании и реализации гуманитарных цифровых проектов$</t>
+    <t xml:space="preserve">СК ОС LA Способность использовать современное программное обеспечение и электронные ресурсы в планировании и реализации гуманитарных цифровых проектов</t>
   </si>
   <si>
     <t xml:space="preserve">Информационные технологии
@@ -3850,7 +3851,7 @@
     <t xml:space="preserve">Публичная политика и социальные науки</t>
   </si>
   <si>
-    <t xml:space="preserve">Публичная политика и государственные стратегии (Liberal Arts)$</t>
+    <t xml:space="preserve">Публичная политика и государственные стратегии (Liberal Arts)</t>
   </si>
   <si>
     <t xml:space="preserve">Аналитик-международник (международный аналитик)
@@ -3957,7 +3958,7 @@
 Информационные системы в экономике</t>
   </si>
   <si>
-    <t xml:space="preserve">Python / Яндекс 360, МойОфис, LibreOffice, "офисный пакет" / Moodle (СДО Академии) / Интернет-ресурсы: e-library / bitrix24 / Яндекс.Метрика, Roistat /$</t>
+    <t xml:space="preserve">Python / Яндекс 360, МойОфис, LibreOffice, "офисный пакет" / Moodle (СДО Академии) / Интернет-ресурсы: e-library / bitrix24 / Яндекс.Метрика, Roistat /</t>
   </si>
   <si>
     <t xml:space="preserve">Развитие международного бизнеса в регионах России (российско-итальянская программа)</t>
@@ -3978,7 +3979,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Комплексная оценка и развитие регионов (многопрофильный бакалавриат)$</t>
+    <t xml:space="preserve">Комплексная оценка и развитие регионов (многопрофильный бакалавриат)</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -3993,7 +3994,7 @@
     <t xml:space="preserve">Реклама и связи с общественностью</t>
   </si>
   <si>
-    <t xml:space="preserve">Реклама$</t>
+    <t xml:space="preserve">Реклама</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -4018,13 +4019,13 @@
 Digital -стратег
 GR-менеджер 
 PR-менеджер 
-SMM-менеджер$</t>
+SMM-менеджер</t>
   </si>
   <si>
     <t xml:space="preserve">Маркетолог
 Менеджер по рекламе
 Специалист по стратегическому планированию рекламы
-PR-менеджер$
+PR-менеджер
 </t>
   </si>
   <si>
@@ -4067,7 +4068,7 @@
 Спичрайтер
 Трафик-менеджер рекламного агентства
 PR-менеджер 
-SMM-менеджер$</t>
+SMM-менеджер</t>
   </si>
   <si>
     <t xml:space="preserve">Компьютерные технологии и информатика</t>
@@ -4106,7 +4107,7 @@
   </si>
   <si>
     <t xml:space="preserve">ОПК-6 Способен использовать в профессиональной деятельности современные технические средства и информационно-коммуникационные технологии
-СК ОС LA Способность использовать современное программное обеспечение и электронные ресурсы в планировании и реализации гуманитарных цифровых проектов$</t>
+СК ОС LA Способность использовать современное программное обеспечение и электронные ресурсы в планировании и реализации гуманитарных цифровых проектов</t>
   </si>
   <si>
     <t xml:space="preserve">Информационные технологии
@@ -4155,7 +4156,7 @@
     <t xml:space="preserve">Сервис</t>
   </si>
   <si>
-    <t xml:space="preserve">Управление мероприятиями$</t>
+    <t xml:space="preserve">Управление мероприятиями</t>
   </si>
   <si>
     <t xml:space="preserve">Заместитель управляющих гостиницами
@@ -4211,12 +4212,12 @@
 Тренд-вотчер
 GR-менеджер
 HR-аналитик
-PR-менеджер$</t>
+PR-менеджер</t>
   </si>
   <si>
     <t xml:space="preserve">
 Менеджер
-Социолог$
+Социолог
 </t>
   </si>
   <si>
@@ -4228,7 +4229,7 @@
   <si>
     <t xml:space="preserve">УК ОС-2 Способность разработать проект на основе оценки ресурсов и ограничений
 УК ОС-9 способность использовать основы экономических знаний в различных сферах деятельности
-СК ОС LA Способность использовать современное программное обеспечение и электронные ресурсы в планировании и реализации гуманитарных цифровых проектов$</t>
+СК ОС LA Способность использовать современное программное обеспечение и электронные ресурсы в планировании и реализации гуманитарных цифровых проектов</t>
   </si>
   <si>
     <t xml:space="preserve">Информационные технологии
@@ -4265,7 +4266,7 @@
   <si>
     <t xml:space="preserve">Маркетолог
 Менеджер
-Социолог$
+Социолог
 </t>
   </si>
   <si>
@@ -4279,7 +4280,7 @@
     <t xml:space="preserve">Судебная и прокурорская деятельность</t>
   </si>
   <si>
-    <t xml:space="preserve">Прокурорская деятельность$</t>
+    <t xml:space="preserve">Прокурорская деятельность</t>
   </si>
   <si>
     <t xml:space="preserve">Адвокат
@@ -4290,14 +4291,14 @@
 Следователь
 Эксперт-криминалист
 Юрисконсульт
-Юрист международник$
+Юрист международник
 </t>
   </si>
   <si>
     <t xml:space="preserve">Адвокат
 Прокурор 
 Юрисконсульт
-Юрист$
+Юрист
 </t>
   </si>
   <si>
@@ -4334,7 +4335,7 @@
 Автоматизация работы с документами</t>
   </si>
   <si>
-    <t xml:space="preserve">Судебная деятельность$</t>
+    <t xml:space="preserve">Судебная деятельность</t>
   </si>
   <si>
     <t xml:space="preserve">Адвокат
@@ -4347,7 +4348,7 @@
 Судебный пристав
 Эксперт-криминалист
 Юрисконсульт
-Юрист международник$
+Юрист международник
 </t>
   </si>
   <si>
@@ -4355,7 +4356,7 @@
 Помощник судьи
 Судебный пристав
 Юрисконсульт
-Юрист $
+Юрист
 </t>
   </si>
   <si>
@@ -4420,7 +4421,7 @@
 Специалист по таможенному оформлению
 Таможенник
 Таможенный брокер
-Таможенный декларант$
+Таможенный декларант
 </t>
   </si>
   <si>
@@ -4453,7 +4454,7 @@
 Специалист по таможенному оформлению
 Таможенник
 Таможенный брокер
-Таможенный декларант$
+Таможенный декларант
 </t>
   </si>
   <si>
@@ -4515,7 +4516,7 @@
 Логист 
 Менеджер ВЭД
 Специалист по цепям поставок
-Транспортный планировщик экспедитор$
+Транспортный планировщик экспедитор
 </t>
   </si>
   <si>
@@ -4576,7 +4577,7 @@
   </si>
   <si>
     <t xml:space="preserve">ОПК-1 способность решать стандартные задачи профессиональной деятельности на основе информационной и библиографической культуры с применением информационно-коммуникационных технологий и с учетом основных требований информационной безопасности, использовать различные источники информации по объекту сервиса
-ОПК-4 способность осуществлять сбор, хранение, обработку и оценку информации, необходимой для организации и управления профессиональной деятельностью (коммерческой, маркетинговой, рекламной, логистической, товароведной и (или) торгово-технологической); способностью применять основные методы и средства получения, хранения, переработки информации и работать с компьютером как со средством управления информацией$</t>
+ОПК-4 способность осуществлять сбор, хранение, обработку и оценку информации, необходимой для организации и управления профессиональной деятельностью (коммерческой, маркетинговой, рекламной, логистической, товароведной и (или) торгово-технологической); способностью применять основные методы и средства получения, хранения, переработки информации и работать с компьютером как со средством управления информацией</t>
   </si>
   <si>
     <t xml:space="preserve">Информатика
@@ -4604,7 +4605,7 @@
 Торговый агент 
 Торговый представитель
 Финансовый аналитик
-Финансовый менеджер$</t>
+Финансовый менеджер</t>
   </si>
   <si>
     <t xml:space="preserve">Аналитик рыночного риска
@@ -4615,7 +4616,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Технологии продаж в современном бизнесе$</t>
+    <t xml:space="preserve">Технологии продаж в современном бизнесе</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -4695,11 +4696,11 @@
 Специалист по метрологии
 Специалист по стандартизации, метрологии и сертификации
 Специалист по управлению качеством 
-Технолог отдела технического контроля$</t>
+Технолог отдела технического контроля</t>
   </si>
   <si>
     <t xml:space="preserve">Специалист по стандартизации, метрологии и сертификации
-Специалист по управлению качеством$
+Специалист по управлению качеством
 </t>
   </si>
   <si>
@@ -4749,12 +4750,12 @@
 Специалист по стандартизации, метрологии и сертификации
 Специалист по управлению качеством 
 Тестировщик, QA-инженер 
-Технолог отдела технического контроля$</t>
+Технолог отдела технического контроля</t>
   </si>
   <si>
     <t xml:space="preserve">Специалист по стандартизации, метрологии и сертификации
 Специалист по управлению качеством 
-Тестировщик, QA-инженер$
+Тестировщик, QA-инженер
 </t>
   </si>
   <si>
@@ -4946,7 +4947,7 @@
 Проектировщик финансовой траектории 
 Специалист бюджетирования
 Финансовый аналитик
-Экономист$
+Экономист
 </t>
   </si>
   <si>
@@ -5261,7 +5262,7 @@
 Антикризисный управляющий топливно-энергетического комплекса
 Финансист
 Финансовый менеджер топливно-энергетического комплекса 
-Экономист$
+Экономист
 </t>
   </si>
   <si>
@@ -5446,7 +5447,7 @@
 Финансист
 Финансовый координатор проектов
 Финансовый менеджер 
-Экономист$
+Экономист
 </t>
   </si>
   <si>
@@ -5460,7 +5461,7 @@
 Финансист
 Финансовый координатор проектов
 Финансовый менеджер 
-Экономист$
+Экономист
 </t>
   </si>
   <si>
@@ -5529,7 +5530,7 @@
 Трейдер 
 Финансист
 Финансовый менеджер 
-Экономист$
+Экономист
 </t>
   </si>
   <si>
@@ -5606,7 +5607,6 @@
 Аналитик рыночного риска
 Инвестиционный аналитик
 Финансовый аналитик
-$
 </t>
   </si>
   <si>
@@ -5690,14 +5690,14 @@
 Налоговый консультант 
 Специалист налоговой безопасности 
 Специалист экономической безопасности 
-Экономист$</t>
+Экономист</t>
   </si>
   <si>
     <t xml:space="preserve">Аналитик
 Юрист
 Специалист налоговой безопасности 
 Специалист экономической безопасности 
-Экономист$</t>
+Экономист</t>
   </si>
   <si>
     <t xml:space="preserve">MS Office 	
@@ -5785,7 +5785,7 @@
 КонсультантПлюс</t>
   </si>
   <si>
-    <t xml:space="preserve">УК ОС-2 Способность разработать проект на основе оценки  ресурсов и ограничений$</t>
+    <t xml:space="preserve">УК ОС-2 Способность разработать проект на основе оценки  ресурсов и ограничений</t>
   </si>
   <si>
     <t xml:space="preserve">Информационные технологии в юридической деятельности</t>
@@ -5864,7 +5864,7 @@
 Сетевой юрист 
 Судья
 Юрисконсульт 
-Юрист$</t>
+Юрист</t>
   </si>
   <si>
     <t xml:space="preserve">Адвокат 
@@ -5873,7 +5873,7 @@
 Нотариус 
 Сетевой юрист 
 Юрисконсульт 
-Юрист$</t>
+Юрист</t>
   </si>
   <si>
     <t xml:space="preserve">Государственно-общественное партнерство при защите национальных интересов силами специальных организаций (казачества)</t>
@@ -5920,7 +5920,7 @@
 Информатика и математика</t>
   </si>
   <si>
-    <t xml:space="preserve">Международно-правовой (Право глобальной интеграции с углубленным изучением иностранного языка (языка региона))$</t>
+    <t xml:space="preserve">Международно-правовой (Право глобальной интеграции с углубленным изучением иностранного языка (языка региона))</t>
   </si>
   <si>
     <t xml:space="preserve">Адвокат
@@ -7252,9 +7252,6 @@
   </si>
   <si>
     <t xml:space="preserve">https://hh.ru/vacancy/71327643?from=vacancy_search_list&amp;hhtmFrom=vacancy_search_list&amp;query=государственные%20услуги</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Безопасность сферы государственных услуг</t>
   </si>
   <si>
     <t xml:space="preserve">https://hh.ru/vacancy/71333703?from=vacancy_search_list&amp;hhtmFrom=vacancy_search_list&amp;query=дизайн</t>
@@ -9925,6 +9922,10 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
@@ -9932,8 +9933,8 @@
   </sheetPr>
   <dimension ref="A1:U148"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="O2" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="R2" activeCellId="0" sqref="R2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G2" activeCellId="0" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.859375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -16822,6 +16823,7 @@
       <c r="J148" s="51"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:S140"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -16829,6 +16831,7 @@
     <oddHeader/>
     <oddFooter/>
   </headerFooter>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -16839,7 +16842,7 @@
   </sheetPr>
   <dimension ref="A1:L137"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D8" activeCellId="0" sqref="D8"/>
     </sheetView>
   </sheetViews>
@@ -17000,7 +17003,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="56.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="56.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="24" t="s">
         <v>714</v>
       </c>
@@ -17027,7 +17030,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="67.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="67.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="24" t="s">
         <v>714</v>
       </c>
@@ -17054,7 +17057,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="56.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="56.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="24" t="s">
         <v>714</v>
       </c>
@@ -17081,7 +17084,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="56.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="56.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="24" t="s">
         <v>714</v>
       </c>
@@ -17195,7 +17198,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="56.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="56.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="24" t="s">
         <v>714</v>
       </c>
@@ -17249,7 +17252,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="56.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="56.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="24" t="s">
         <v>714</v>
       </c>
@@ -17303,7 +17306,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="56.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="56.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="24" t="s">
         <v>714</v>
       </c>
@@ -17357,7 +17360,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="56.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="56.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="24" t="s">
         <v>725</v>
       </c>
@@ -18708,7 +18711,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="168.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="66" customFormat="false" ht="168.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="24" t="s">
         <v>725</v>
       </c>
@@ -18737,7 +18740,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="168.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="67" customFormat="false" ht="168.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="24" t="s">
         <v>725</v>
       </c>
@@ -18766,7 +18769,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="68" customFormat="false" ht="168.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="68" customFormat="false" ht="168.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="24" t="s">
         <v>725</v>
       </c>
@@ -18795,7 +18798,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="69" customFormat="false" ht="168.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="69" customFormat="false" ht="168.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="24" t="s">
         <v>725</v>
       </c>
@@ -19253,7 +19256,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="85" customFormat="false" ht="67.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="85" customFormat="false" ht="67.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="24" t="s">
         <v>727</v>
       </c>
@@ -19311,7 +19314,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="87" customFormat="false" ht="67.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="87" customFormat="false" ht="67.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="24" t="s">
         <v>751</v>
       </c>
@@ -19398,7 +19401,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="90" customFormat="false" ht="168.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="90" customFormat="false" ht="168.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="24" t="s">
         <v>725</v>
       </c>
@@ -19427,7 +19430,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="91" customFormat="false" ht="168.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="91" customFormat="false" ht="168.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="24" t="s">
         <v>725</v>
       </c>
@@ -19456,7 +19459,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="92" customFormat="false" ht="168.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="92" customFormat="false" ht="168.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="24" t="s">
         <v>725</v>
       </c>
@@ -19485,7 +19488,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="93" customFormat="false" ht="168.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="93" customFormat="false" ht="168.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="24" t="s">
         <v>725</v>
       </c>
@@ -19514,7 +19517,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="94" customFormat="false" ht="168.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="94" customFormat="false" ht="168.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="24" t="s">
         <v>725</v>
       </c>
@@ -19804,7 +19807,7 @@
         <v>822</v>
       </c>
     </row>
-    <row r="104" customFormat="false" ht="168.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="104" customFormat="false" ht="168.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="24" t="s">
         <v>714</v>
       </c>
@@ -19920,7 +19923,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="108" customFormat="false" ht="168.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="108" customFormat="false" ht="168.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="24" t="s">
         <v>714</v>
       </c>
@@ -20495,7 +20498,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="128" customFormat="false" ht="168.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="128" customFormat="false" ht="168.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="24" t="s">
         <v>725</v>
       </c>
@@ -20578,7 +20581,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="131" customFormat="false" ht="168.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="131" customFormat="false" ht="168.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="24" t="s">
         <v>725</v>
       </c>
@@ -20607,7 +20610,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="132" customFormat="false" ht="168.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="132" customFormat="false" ht="168.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="24" t="s">
         <v>725</v>
       </c>
@@ -20636,7 +20639,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="133" customFormat="false" ht="168.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="133" customFormat="false" ht="168.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="24" t="s">
         <v>725</v>
       </c>
@@ -20719,7 +20722,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="136" customFormat="false" ht="168.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="136" customFormat="false" ht="168.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="24" t="s">
         <v>714</v>
       </c>
@@ -20779,7 +20782,7 @@
   <autoFilter ref="A1:I137">
     <filterColumn colId="4">
       <customFilters and="true">
-        <customFilter operator="equal" val="Государственный служащий"/>
+        <customFilter operator="equal" val="Pr-менеджер"/>
       </customFilters>
     </filterColumn>
   </autoFilter>
@@ -20801,7 +20804,7 @@
   </sheetPr>
   <dimension ref="A1:B226"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
     </sheetView>
   </sheetViews>
@@ -22253,7 +22256,7 @@
   </sheetPr>
   <dimension ref="A1:D93"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A49" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A49" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E67" activeCellId="0" sqref="E67"/>
     </sheetView>
   </sheetViews>
@@ -23020,7 +23023,7 @@
   </sheetPr>
   <dimension ref="A1:AC46"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="O2" activeCellId="0" sqref="O2"/>
     </sheetView>
   </sheetViews>
@@ -23220,7 +23223,7 @@
     </row>
     <row r="5" s="72" customFormat="true" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="68" t="s">
-        <v>1082</v>
+        <v>127</v>
       </c>
       <c r="B5" s="73" t="s">
         <v>1063</v>
@@ -23245,10 +23248,10 @@
       <c r="L5" s="73"/>
       <c r="M5" s="73"/>
       <c r="N5" s="73" t="s">
+        <v>1082</v>
+      </c>
+      <c r="O5" s="73" t="s">
         <v>1083</v>
-      </c>
-      <c r="O5" s="73" t="s">
-        <v>1084</v>
       </c>
       <c r="P5" s="75"/>
       <c r="Q5" s="75"/>
@@ -23265,7 +23268,7 @@
         <v>1063</v>
       </c>
       <c r="C6" s="73" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="D6" s="73" t="s">
         <v>1051</v>
@@ -23274,28 +23277,28 @@
         <v>1046</v>
       </c>
       <c r="F6" s="73" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="G6" s="76" t="s">
         <v>1044</v>
       </c>
       <c r="H6" s="73" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="I6" s="73" t="s">
         <v>974</v>
       </c>
       <c r="J6" s="73" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="K6" s="73"/>
       <c r="L6" s="73"/>
       <c r="M6" s="73"/>
       <c r="N6" s="73" t="s">
+        <v>1088</v>
+      </c>
+      <c r="O6" s="73" t="s">
         <v>1089</v>
-      </c>
-      <c r="O6" s="73" t="s">
-        <v>1090</v>
       </c>
       <c r="P6" s="73"/>
       <c r="Q6" s="73"/>
@@ -23329,7 +23332,7 @@
       <c r="L7" s="73"/>
       <c r="M7" s="73"/>
       <c r="N7" s="73" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="O7" s="73"/>
       <c r="P7" s="73"/>
@@ -23347,10 +23350,10 @@
         <v>1063</v>
       </c>
       <c r="C8" s="77" t="s">
+        <v>1091</v>
+      </c>
+      <c r="D8" s="77" t="s">
         <v>1092</v>
-      </c>
-      <c r="D8" s="77" t="s">
-        <v>1093</v>
       </c>
       <c r="E8" s="77" t="s">
         <v>978</v>
@@ -23362,7 +23365,7 @@
         <v>993</v>
       </c>
       <c r="H8" s="77" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="I8" s="77" t="s">
         <v>974</v>
@@ -23394,7 +23397,7 @@
         <v>1064</v>
       </c>
       <c r="E9" s="76" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="F9" s="73" t="s">
         <v>974</v>
@@ -23407,10 +23410,10 @@
       <c r="L9" s="73"/>
       <c r="M9" s="73"/>
       <c r="N9" s="73" t="s">
+        <v>1095</v>
+      </c>
+      <c r="O9" s="73" t="s">
         <v>1096</v>
-      </c>
-      <c r="O9" s="73" t="s">
-        <v>1097</v>
       </c>
       <c r="P9" s="73"/>
       <c r="Q9" s="73"/>
@@ -23430,16 +23433,16 @@
         <v>1025</v>
       </c>
       <c r="D10" s="73" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="E10" s="73" t="s">
         <v>992</v>
       </c>
       <c r="F10" s="73" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="G10" s="73" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="H10" s="73" t="s">
         <v>974</v>
@@ -23450,10 +23453,10 @@
       <c r="L10" s="73"/>
       <c r="M10" s="73"/>
       <c r="N10" s="73" t="s">
+        <v>1099</v>
+      </c>
+      <c r="O10" s="73" t="s">
         <v>1100</v>
-      </c>
-      <c r="O10" s="73" t="s">
-        <v>1101</v>
       </c>
       <c r="P10" s="73"/>
       <c r="Q10" s="73"/>
@@ -23470,10 +23473,10 @@
         <v>1063</v>
       </c>
       <c r="C11" s="76" t="s">
+        <v>1101</v>
+      </c>
+      <c r="D11" s="76" t="s">
         <v>1102</v>
-      </c>
-      <c r="D11" s="76" t="s">
-        <v>1103</v>
       </c>
       <c r="E11" s="73" t="s">
         <v>790</v>
@@ -23491,10 +23494,10 @@
       <c r="L11" s="73"/>
       <c r="M11" s="73"/>
       <c r="N11" s="73" t="s">
+        <v>1103</v>
+      </c>
+      <c r="O11" s="73" t="s">
         <v>1104</v>
-      </c>
-      <c r="O11" s="73" t="s">
-        <v>1105</v>
       </c>
       <c r="P11" s="73"/>
       <c r="Q11" s="73"/>
@@ -23514,31 +23517,31 @@
         <v>979</v>
       </c>
       <c r="D12" s="73" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="E12" s="73" t="s">
         <v>1028</v>
       </c>
       <c r="F12" s="73" t="s">
+        <v>1106</v>
+      </c>
+      <c r="G12" s="73" t="s">
         <v>1107</v>
       </c>
-      <c r="G12" s="73" t="s">
+      <c r="H12" s="73" t="s">
         <v>1108</v>
-      </c>
-      <c r="H12" s="73" t="s">
-        <v>1109</v>
       </c>
       <c r="I12" s="73" t="s">
         <v>974</v>
       </c>
       <c r="J12" s="73" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="K12" s="73"/>
       <c r="L12" s="73"/>
       <c r="M12" s="73"/>
       <c r="N12" s="73" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="O12" s="73"/>
       <c r="P12" s="73"/>
@@ -23565,13 +23568,13 @@
         <v>790</v>
       </c>
       <c r="F13" s="73" t="s">
+        <v>1111</v>
+      </c>
+      <c r="G13" s="73" t="s">
         <v>1112</v>
       </c>
-      <c r="G13" s="73" t="s">
+      <c r="H13" s="73" t="s">
         <v>1113</v>
-      </c>
-      <c r="H13" s="73" t="s">
-        <v>1114</v>
       </c>
       <c r="I13" s="73" t="s">
         <v>974</v>
@@ -23583,10 +23586,10 @@
       <c r="L13" s="73"/>
       <c r="M13" s="73"/>
       <c r="N13" s="73" t="s">
+        <v>1114</v>
+      </c>
+      <c r="O13" s="73" t="s">
         <v>1115</v>
-      </c>
-      <c r="O13" s="73" t="s">
-        <v>1116</v>
       </c>
       <c r="P13" s="73"/>
       <c r="Q13" s="73"/>
@@ -23603,7 +23606,7 @@
         <v>1063</v>
       </c>
       <c r="C14" s="73" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="D14" s="73" t="s">
         <v>790</v>
@@ -23612,31 +23615,31 @@
         <v>974</v>
       </c>
       <c r="F14" s="73" t="s">
+        <v>1117</v>
+      </c>
+      <c r="G14" s="73" t="s">
         <v>1118</v>
       </c>
-      <c r="G14" s="73" t="s">
+      <c r="H14" s="73" t="s">
         <v>1119</v>
       </c>
-      <c r="H14" s="73" t="s">
+      <c r="I14" s="75" t="s">
         <v>1120</v>
       </c>
-      <c r="I14" s="75" t="s">
+      <c r="J14" s="73" t="s">
         <v>1121</v>
       </c>
-      <c r="J14" s="73" t="s">
+      <c r="K14" s="73" t="s">
         <v>1122</v>
       </c>
-      <c r="K14" s="73" t="s">
+      <c r="L14" s="73" t="s">
         <v>1123</v>
-      </c>
-      <c r="L14" s="73" t="s">
-        <v>1124</v>
       </c>
       <c r="M14" s="73" t="s">
         <v>1013</v>
       </c>
       <c r="N14" s="73" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="O14" s="73"/>
       <c r="P14" s="73"/>
@@ -23654,7 +23657,7 @@
         <v>1063</v>
       </c>
       <c r="C15" s="73" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="D15" s="73" t="s">
         <v>790</v>
@@ -23663,31 +23666,31 @@
         <v>974</v>
       </c>
       <c r="F15" s="73" t="s">
+        <v>1125</v>
+      </c>
+      <c r="G15" s="73" t="s">
         <v>1126</v>
       </c>
-      <c r="G15" s="73" t="s">
-        <v>1127</v>
-      </c>
       <c r="H15" s="73" t="s">
+        <v>1119</v>
+      </c>
+      <c r="I15" s="75" t="s">
         <v>1120</v>
       </c>
-      <c r="I15" s="75" t="s">
+      <c r="J15" s="73" t="s">
         <v>1121</v>
       </c>
-      <c r="J15" s="73" t="s">
+      <c r="K15" s="73" t="s">
         <v>1122</v>
       </c>
-      <c r="K15" s="73" t="s">
+      <c r="L15" s="73" t="s">
         <v>1123</v>
-      </c>
-      <c r="L15" s="73" t="s">
-        <v>1124</v>
       </c>
       <c r="M15" s="73" t="s">
         <v>1013</v>
       </c>
       <c r="N15" s="73" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="O15" s="73"/>
       <c r="P15" s="73"/>
@@ -23705,7 +23708,7 @@
         <v>1063</v>
       </c>
       <c r="C16" s="73" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="D16" s="73" t="s">
         <v>1025</v>
@@ -23726,10 +23729,10 @@
       <c r="L16" s="73"/>
       <c r="M16" s="73"/>
       <c r="N16" s="73" t="s">
+        <v>1128</v>
+      </c>
+      <c r="O16" s="73" t="s">
         <v>1129</v>
-      </c>
-      <c r="O16" s="73" t="s">
-        <v>1130</v>
       </c>
       <c r="P16" s="73"/>
       <c r="Q16" s="73"/>
@@ -23746,7 +23749,7 @@
         <v>1063</v>
       </c>
       <c r="C17" s="73" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="D17" s="73" t="s">
         <v>1025</v>
@@ -23767,10 +23770,10 @@
       <c r="L17" s="73"/>
       <c r="M17" s="73"/>
       <c r="N17" s="73" t="s">
+        <v>1128</v>
+      </c>
+      <c r="O17" s="73" t="s">
         <v>1129</v>
-      </c>
-      <c r="O17" s="73" t="s">
-        <v>1130</v>
       </c>
       <c r="P17" s="73"/>
       <c r="Q17" s="73"/>
@@ -23787,32 +23790,32 @@
         <v>1063</v>
       </c>
       <c r="C18" s="73" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="D18" s="73" t="s">
         <v>974</v>
       </c>
       <c r="E18" s="73" t="s">
+        <v>1130</v>
+      </c>
+      <c r="F18" s="73" t="s">
         <v>1131</v>
       </c>
-      <c r="F18" s="73" t="s">
+      <c r="G18" s="73" t="s">
         <v>1132</v>
       </c>
-      <c r="G18" s="73" t="s">
+      <c r="H18" s="73" t="s">
+        <v>1108</v>
+      </c>
+      <c r="I18" s="75" t="s">
         <v>1133</v>
-      </c>
-      <c r="H18" s="73" t="s">
-        <v>1109</v>
-      </c>
-      <c r="I18" s="75" t="s">
-        <v>1134</v>
       </c>
       <c r="J18" s="73"/>
       <c r="K18" s="73"/>
       <c r="L18" s="73"/>
       <c r="M18" s="73"/>
       <c r="N18" s="73" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="O18" s="73"/>
       <c r="P18" s="73"/>
@@ -23830,16 +23833,16 @@
         <v>1063</v>
       </c>
       <c r="C19" s="77" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="D19" s="77" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="E19" s="77" t="s">
         <v>975</v>
       </c>
       <c r="F19" s="77" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="G19" s="77" t="s">
         <v>974</v>
@@ -23896,10 +23899,10 @@
       <c r="L20" s="73"/>
       <c r="M20" s="73"/>
       <c r="N20" s="73" t="s">
+        <v>1136</v>
+      </c>
+      <c r="O20" s="73" t="s">
         <v>1137</v>
-      </c>
-      <c r="O20" s="73" t="s">
-        <v>1138</v>
       </c>
       <c r="P20" s="73"/>
       <c r="Q20" s="73"/>
@@ -23919,16 +23922,16 @@
         <v>998</v>
       </c>
       <c r="D21" s="81" t="s">
+        <v>1138</v>
+      </c>
+      <c r="E21" s="81" t="s">
+        <v>1133</v>
+      </c>
+      <c r="F21" s="73" t="s">
         <v>1139</v>
       </c>
-      <c r="E21" s="81" t="s">
-        <v>1134</v>
-      </c>
-      <c r="F21" s="73" t="s">
+      <c r="G21" s="73" t="s">
         <v>1140</v>
-      </c>
-      <c r="G21" s="73" t="s">
-        <v>1141</v>
       </c>
       <c r="H21" s="73" t="s">
         <v>1054</v>
@@ -23937,19 +23940,19 @@
         <v>974</v>
       </c>
       <c r="J21" s="73" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="K21" s="73"/>
       <c r="L21" s="73"/>
       <c r="M21" s="73"/>
       <c r="N21" s="73" t="s">
+        <v>1142</v>
+      </c>
+      <c r="O21" s="73" t="s">
         <v>1143</v>
       </c>
-      <c r="O21" s="73" t="s">
+      <c r="P21" s="73" t="s">
         <v>1144</v>
-      </c>
-      <c r="P21" s="73" t="s">
-        <v>1145</v>
       </c>
       <c r="Q21" s="73"/>
       <c r="R21" s="70"/>
@@ -23965,7 +23968,7 @@
         <v>1063</v>
       </c>
       <c r="C22" s="73" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="D22" s="73" t="s">
         <v>1038</v>
@@ -23981,7 +23984,7 @@
       <c r="L22" s="73"/>
       <c r="M22" s="73"/>
       <c r="N22" s="73" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="O22" s="73"/>
       <c r="P22" s="73"/>
@@ -24005,7 +24008,7 @@
         <v>1034</v>
       </c>
       <c r="E23" s="73" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="F23" s="73" t="s">
         <v>995</v>
@@ -24022,10 +24025,10 @@
       <c r="L23" s="73"/>
       <c r="M23" s="73"/>
       <c r="N23" s="73" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="O23" s="73" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="P23" s="73"/>
       <c r="Q23" s="73"/>
@@ -24061,10 +24064,10 @@
       <c r="L24" s="73"/>
       <c r="M24" s="73"/>
       <c r="N24" s="73" t="s">
+        <v>1149</v>
+      </c>
+      <c r="O24" s="73" t="s">
         <v>1150</v>
-      </c>
-      <c r="O24" s="73" t="s">
-        <v>1151</v>
       </c>
       <c r="P24" s="73"/>
       <c r="Q24" s="73"/>
@@ -24102,7 +24105,7 @@
       <c r="L25" s="73"/>
       <c r="M25" s="73"/>
       <c r="N25" s="73" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="O25" s="73"/>
       <c r="P25" s="73"/>
@@ -24120,7 +24123,7 @@
         <v>1063</v>
       </c>
       <c r="C26" s="73" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="D26" s="73" t="s">
         <v>1030</v>
@@ -24139,10 +24142,10 @@
       <c r="L26" s="73"/>
       <c r="M26" s="73"/>
       <c r="N26" s="73" t="s">
+        <v>1153</v>
+      </c>
+      <c r="O26" s="73" t="s">
         <v>1154</v>
-      </c>
-      <c r="O26" s="73" t="s">
-        <v>1155</v>
       </c>
       <c r="P26" s="73"/>
       <c r="Q26" s="73"/>
@@ -24162,10 +24165,10 @@
         <v>1032</v>
       </c>
       <c r="D27" s="73" t="s">
+        <v>1155</v>
+      </c>
+      <c r="E27" s="73" t="s">
         <v>1156</v>
-      </c>
-      <c r="E27" s="73" t="s">
-        <v>1157</v>
       </c>
       <c r="F27" s="73" t="s">
         <v>1039</v>
@@ -24182,13 +24185,13 @@
       <c r="L27" s="73"/>
       <c r="M27" s="73"/>
       <c r="N27" s="73" t="s">
+        <v>1157</v>
+      </c>
+      <c r="O27" s="73" t="s">
         <v>1158</v>
       </c>
-      <c r="O27" s="73" t="s">
+      <c r="P27" s="73" t="s">
         <v>1159</v>
-      </c>
-      <c r="P27" s="73" t="s">
-        <v>1160</v>
       </c>
       <c r="Q27" s="73"/>
       <c r="R27" s="70"/>
@@ -24219,7 +24222,7 @@
         <v>974</v>
       </c>
       <c r="H28" s="73" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="I28" s="81" t="s">
         <v>985</v>
@@ -24232,7 +24235,7 @@
         <v>1073</v>
       </c>
       <c r="O28" s="73" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="P28" s="75"/>
       <c r="Q28" s="73"/>
@@ -24252,7 +24255,7 @@
         <v>979</v>
       </c>
       <c r="D29" s="73" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="E29" s="73" t="s">
         <v>790</v>
@@ -24272,7 +24275,7 @@
       <c r="L29" s="73"/>
       <c r="M29" s="73"/>
       <c r="N29" s="73" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="O29" s="73"/>
       <c r="P29" s="73"/>
@@ -24299,13 +24302,13 @@
         <v>790</v>
       </c>
       <c r="F30" s="73" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="G30" s="73" t="s">
         <v>991</v>
       </c>
       <c r="H30" s="73" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="I30" s="73" t="s">
         <v>974</v>
@@ -24317,10 +24320,10 @@
       <c r="L30" s="73"/>
       <c r="M30" s="73"/>
       <c r="N30" s="73" t="s">
+        <v>1114</v>
+      </c>
+      <c r="O30" s="73" t="s">
         <v>1115</v>
-      </c>
-      <c r="O30" s="73" t="s">
-        <v>1116</v>
       </c>
       <c r="P30" s="73"/>
       <c r="Q30" s="73"/>
@@ -24345,7 +24348,7 @@
         <v>56</v>
       </c>
       <c r="D34" s="68" t="s">
-        <v>1082</v>
+        <v>127</v>
       </c>
       <c r="E34" s="68" t="s">
         <v>134</v>
@@ -24526,13 +24529,13 @@
         <v>979</v>
       </c>
       <c r="E36" s="73" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="F36" s="73" t="s">
         <v>1000</v>
       </c>
       <c r="G36" s="77" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="H36" s="76" t="s">
         <v>1049</v>
@@ -24541,7 +24544,7 @@
         <v>1025</v>
       </c>
       <c r="J36" s="76" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="K36" s="73" t="s">
         <v>979</v>
@@ -24550,22 +24553,22 @@
         <v>988</v>
       </c>
       <c r="M36" s="73" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="N36" s="73" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="O36" s="73" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="P36" s="73" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="Q36" s="73" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="R36" s="77" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="S36" s="73" t="s">
         <v>1008</v>
@@ -24574,7 +24577,7 @@
         <v>998</v>
       </c>
       <c r="U36" s="73" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="V36" s="73" t="s">
         <v>979</v>
@@ -24586,7 +24589,7 @@
         <v>979</v>
       </c>
       <c r="Y36" s="73" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="Z36" s="73" t="s">
         <v>1032</v>
@@ -24621,19 +24624,19 @@
         <v>999</v>
       </c>
       <c r="G37" s="77" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="H37" s="73" t="s">
         <v>1064</v>
       </c>
       <c r="I37" s="73" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="J37" s="76" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="K37" s="73" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="L37" s="73" t="s">
         <v>990</v>
@@ -24654,13 +24657,13 @@
         <v>974</v>
       </c>
       <c r="R37" s="77" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="S37" s="73" t="s">
         <v>1006</v>
       </c>
       <c r="T37" s="81" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="U37" s="73" t="s">
         <v>1038</v>
@@ -24678,13 +24681,13 @@
         <v>1030</v>
       </c>
       <c r="Z37" s="73" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="AA37" s="73" t="s">
         <v>975</v>
       </c>
       <c r="AB37" s="73" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="AC37" s="73" t="s">
         <v>990</v>
@@ -24713,7 +24716,7 @@
         <v>978</v>
       </c>
       <c r="H38" s="76" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="I38" s="73" t="s">
         <v>992</v>
@@ -24740,7 +24743,7 @@
         <v>985</v>
       </c>
       <c r="Q38" s="73" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="R38" s="77" t="s">
         <v>975</v>
@@ -24749,13 +24752,13 @@
         <v>974</v>
       </c>
       <c r="T38" s="81" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="U38" s="73" t="s">
         <v>974</v>
       </c>
       <c r="V38" s="73" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="W38" s="73" t="s">
         <v>1012</v>
@@ -24767,7 +24770,7 @@
         <v>790</v>
       </c>
       <c r="Z38" s="73" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="AA38" s="73" t="s">
         <v>790</v>
@@ -24793,7 +24796,7 @@
         <v>974</v>
       </c>
       <c r="E39" s="73" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="F39" s="73"/>
       <c r="G39" s="77" t="s">
@@ -24803,22 +24806,22 @@
         <v>974</v>
       </c>
       <c r="I39" s="73" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="J39" s="76" t="s">
         <v>998</v>
       </c>
       <c r="K39" s="73" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="L39" s="73" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="M39" s="73" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="N39" s="73" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="O39" s="81" t="s">
         <v>1033</v>
@@ -24827,16 +24830,16 @@
         <v>1033</v>
       </c>
       <c r="Q39" s="73" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="R39" s="77" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="S39" s="73" t="s">
         <v>1007</v>
       </c>
       <c r="T39" s="73" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="U39" s="72"/>
       <c r="V39" s="73" t="s">
@@ -24861,7 +24864,7 @@
         <v>1042</v>
       </c>
       <c r="AC39" s="73" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24884,22 +24887,22 @@
       </c>
       <c r="H40" s="73"/>
       <c r="I40" s="73" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="J40" s="73" t="s">
         <v>974</v>
       </c>
       <c r="K40" s="73" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="L40" s="73" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="M40" s="73" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="N40" s="73" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="O40" s="73" t="s">
         <v>974</v>
@@ -24908,7 +24911,7 @@
         <v>974</v>
       </c>
       <c r="Q40" s="73" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="R40" s="77" t="s">
         <v>974</v>
@@ -24917,7 +24920,7 @@
         <v>1004</v>
       </c>
       <c r="T40" s="73" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="U40" s="73"/>
       <c r="V40" s="73" t="s">
@@ -24951,11 +24954,11 @@
       <c r="C41" s="73"/>
       <c r="D41" s="73"/>
       <c r="E41" s="73" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="F41" s="73"/>
       <c r="G41" s="77" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="H41" s="73"/>
       <c r="I41" s="73" t="s">
@@ -24963,21 +24966,21 @@
       </c>
       <c r="J41" s="73"/>
       <c r="K41" s="73" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="L41" s="73" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="M41" s="73" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="N41" s="73" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="O41" s="73"/>
       <c r="P41" s="73"/>
       <c r="Q41" s="73" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="R41" s="77"/>
       <c r="S41" s="73" t="s">
@@ -24997,13 +25000,13 @@
         <v>974</v>
       </c>
       <c r="AA41" s="73" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="AB41" s="73" t="s">
         <v>974</v>
       </c>
       <c r="AC41" s="73" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25032,15 +25035,15 @@
         <v>974</v>
       </c>
       <c r="M42" s="75" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="N42" s="75" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="O42" s="75"/>
       <c r="P42" s="75"/>
       <c r="Q42" s="75" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="R42" s="82"/>
       <c r="S42" s="75" t="s">
@@ -25071,7 +25074,7 @@
       <c r="C43" s="73"/>
       <c r="D43" s="73"/>
       <c r="E43" s="73" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="F43" s="73"/>
       <c r="G43" s="77"/>
@@ -25079,16 +25082,16 @@
       <c r="I43" s="73"/>
       <c r="J43" s="73"/>
       <c r="K43" s="73" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="L43" s="73" t="s">
         <v>979</v>
       </c>
       <c r="M43" s="73" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="N43" s="73" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="O43" s="73"/>
       <c r="P43" s="73"/>
@@ -25098,7 +25101,7 @@
         <v>1005</v>
       </c>
       <c r="T43" s="73" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="U43" s="73"/>
       <c r="V43" s="73"/>
@@ -25128,10 +25131,10 @@
       <c r="K44" s="73"/>
       <c r="L44" s="73"/>
       <c r="M44" s="73" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="N44" s="73" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="O44" s="73"/>
       <c r="P44" s="73"/>
@@ -25167,10 +25170,10 @@
       <c r="K45" s="73"/>
       <c r="L45" s="73"/>
       <c r="M45" s="73" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="N45" s="73" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="O45" s="73"/>
       <c r="P45" s="73"/>
@@ -25264,7 +25267,7 @@
   </sheetPr>
   <dimension ref="A1:W33"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="N55" activeCellId="0" sqref="N55"/>
     </sheetView>
   </sheetViews>
@@ -25506,7 +25509,7 @@
         <v>7</v>
       </c>
       <c r="B1" s="85" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="C1" s="85"/>
       <c r="D1" s="85"/>
@@ -25534,87 +25537,87 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="87" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="B2" s="88" t="s">
         <v>984</v>
       </c>
       <c r="C2" s="88" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="D2" s="88" t="s">
         <v>998</v>
       </c>
       <c r="E2" s="10" t="s">
+        <v>1167</v>
+      </c>
+      <c r="F2" s="10" t="s">
         <v>1168</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="G2" s="88" t="s">
         <v>1169</v>
-      </c>
-      <c r="G2" s="88" t="s">
-        <v>1170</v>
       </c>
       <c r="H2" s="88" t="s">
         <v>803</v>
       </c>
       <c r="I2" s="88" t="s">
+        <v>1170</v>
+      </c>
+      <c r="J2" s="88" t="s">
         <v>1171</v>
       </c>
-      <c r="J2" s="88" t="s">
+      <c r="K2" s="10" t="s">
         <v>1172</v>
       </c>
-      <c r="K2" s="10" t="s">
+      <c r="L2" s="88" t="s">
         <v>1173</v>
       </c>
-      <c r="L2" s="88" t="s">
+      <c r="M2" s="88" t="s">
         <v>1174</v>
       </c>
-      <c r="M2" s="88" t="s">
+      <c r="N2" s="10" t="s">
         <v>1175</v>
       </c>
-      <c r="N2" s="10" t="s">
+      <c r="O2" s="88" t="s">
         <v>1176</v>
-      </c>
-      <c r="O2" s="88" t="s">
-        <v>1177</v>
       </c>
       <c r="P2" s="88" t="s">
         <v>790</v>
       </c>
       <c r="Q2" s="88" t="s">
+        <v>1177</v>
+      </c>
+      <c r="R2" s="89" t="s">
         <v>1178</v>
       </c>
-      <c r="R2" s="89" t="s">
+      <c r="S2" s="89" t="s">
         <v>1179</v>
       </c>
-      <c r="S2" s="89" t="s">
+      <c r="T2" s="89" t="s">
         <v>1180</v>
       </c>
-      <c r="T2" s="89" t="s">
+      <c r="U2" s="89" t="s">
         <v>1181</v>
       </c>
-      <c r="U2" s="89" t="s">
+      <c r="V2" s="89" t="s">
         <v>1182</v>
       </c>
-      <c r="V2" s="89" t="s">
+      <c r="W2" s="89" t="s">
         <v>1183</v>
-      </c>
-      <c r="W2" s="89" t="s">
-        <v>1184</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="87" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="B3" s="88" t="s">
         <v>790</v>
       </c>
       <c r="C3" s="88" t="s">
+        <v>1185</v>
+      </c>
+      <c r="D3" s="88" t="s">
         <v>1186</v>
-      </c>
-      <c r="D3" s="88" t="s">
-        <v>1187</v>
       </c>
       <c r="E3" s="88" t="s">
         <v>998</v>
@@ -25623,10 +25626,10 @@
         <v>803</v>
       </c>
       <c r="G3" s="89" t="s">
+        <v>1187</v>
+      </c>
+      <c r="H3" s="88" t="s">
         <v>1188</v>
-      </c>
-      <c r="H3" s="88" t="s">
-        <v>1189</v>
       </c>
       <c r="I3" s="88"/>
       <c r="J3" s="88"/>
@@ -25638,19 +25641,19 @@
       <c r="P3" s="10"/>
       <c r="Q3" s="10"/>
       <c r="R3" s="89" t="s">
+        <v>1189</v>
+      </c>
+      <c r="S3" s="89" t="s">
         <v>1190</v>
       </c>
-      <c r="S3" s="89" t="s">
+      <c r="T3" s="89" t="s">
         <v>1191</v>
       </c>
-      <c r="T3" s="89" t="s">
+      <c r="U3" s="89" t="s">
         <v>1192</v>
       </c>
-      <c r="U3" s="89" t="s">
+      <c r="V3" s="89" t="s">
         <v>1193</v>
-      </c>
-      <c r="V3" s="89" t="s">
-        <v>1194</v>
       </c>
       <c r="W3" s="89"/>
     </row>
@@ -25659,22 +25662,22 @@
         <v>937</v>
       </c>
       <c r="B4" s="88" t="s">
+        <v>1194</v>
+      </c>
+      <c r="C4" s="88" t="s">
         <v>1195</v>
       </c>
-      <c r="C4" s="88" t="s">
+      <c r="D4" s="88" t="s">
+        <v>1173</v>
+      </c>
+      <c r="E4" s="88" t="s">
         <v>1196</v>
-      </c>
-      <c r="D4" s="88" t="s">
-        <v>1174</v>
-      </c>
-      <c r="E4" s="88" t="s">
-        <v>1197</v>
       </c>
       <c r="F4" s="88" t="s">
         <v>803</v>
       </c>
       <c r="G4" s="88" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="H4" s="89"/>
       <c r="I4" s="89"/>
@@ -25687,16 +25690,16 @@
       <c r="P4" s="10"/>
       <c r="Q4" s="10"/>
       <c r="R4" s="89" t="s">
+        <v>1198</v>
+      </c>
+      <c r="S4" s="89" t="s">
         <v>1199</v>
       </c>
-      <c r="S4" s="89" t="s">
+      <c r="T4" s="89" t="s">
         <v>1200</v>
       </c>
-      <c r="T4" s="89" t="s">
+      <c r="U4" s="89" t="s">
         <v>1201</v>
-      </c>
-      <c r="U4" s="89" t="s">
-        <v>1202</v>
       </c>
       <c r="V4" s="89"/>
       <c r="W4" s="89"/>
@@ -25712,31 +25715,31 @@
         <v>973</v>
       </c>
       <c r="D5" s="88" t="s">
+        <v>1202</v>
+      </c>
+      <c r="E5" s="88" t="s">
         <v>1203</v>
       </c>
-      <c r="E5" s="88" t="s">
+      <c r="F5" s="89" t="s">
         <v>1204</v>
       </c>
-      <c r="F5" s="89" t="s">
+      <c r="G5" s="88" t="s">
         <v>1205</v>
       </c>
-      <c r="G5" s="88" t="s">
+      <c r="H5" s="88" t="s">
         <v>1206</v>
       </c>
-      <c r="H5" s="88" t="s">
+      <c r="I5" s="88" t="s">
         <v>1207</v>
       </c>
-      <c r="I5" s="88" t="s">
+      <c r="J5" s="89" t="s">
         <v>1208</v>
       </c>
-      <c r="J5" s="89" t="s">
+      <c r="K5" s="89" t="s">
         <v>1209</v>
       </c>
-      <c r="K5" s="89" t="s">
+      <c r="L5" s="10" t="s">
         <v>1210</v>
-      </c>
-      <c r="L5" s="10" t="s">
-        <v>1211</v>
       </c>
       <c r="M5" s="89"/>
       <c r="N5" s="10"/>
@@ -25744,38 +25747,38 @@
       <c r="P5" s="10"/>
       <c r="Q5" s="10"/>
       <c r="R5" s="90" t="s">
+        <v>1211</v>
+      </c>
+      <c r="S5" s="89" t="s">
         <v>1212</v>
-      </c>
-      <c r="S5" s="89" t="s">
-        <v>1213</v>
       </c>
       <c r="T5" s="89"/>
       <c r="U5" s="89" t="s">
+        <v>1213</v>
+      </c>
+      <c r="V5" s="89" t="s">
         <v>1214</v>
-      </c>
-      <c r="V5" s="89" t="s">
-        <v>1215</v>
       </c>
       <c r="W5" s="89"/>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="87" t="s">
+        <v>1215</v>
+      </c>
+      <c r="B6" s="88" t="s">
         <v>1216</v>
       </c>
-      <c r="B6" s="88" t="s">
+      <c r="C6" s="89" t="s">
         <v>1217</v>
-      </c>
-      <c r="C6" s="89" t="s">
-        <v>1218</v>
       </c>
       <c r="D6" s="88" t="s">
         <v>998</v>
       </c>
       <c r="E6" s="88" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="F6" s="89" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="G6" s="10"/>
       <c r="H6" s="89"/>
@@ -25789,80 +25792,80 @@
       <c r="P6" s="10"/>
       <c r="Q6" s="10"/>
       <c r="R6" s="89" t="s">
+        <v>1219</v>
+      </c>
+      <c r="S6" s="89" t="s">
         <v>1220</v>
       </c>
-      <c r="S6" s="89" t="s">
+      <c r="T6" s="89" t="s">
         <v>1221</v>
       </c>
-      <c r="T6" s="89" t="s">
+      <c r="U6" s="89" t="s">
         <v>1222</v>
       </c>
-      <c r="U6" s="89" t="s">
+      <c r="V6" s="89" t="s">
         <v>1223</v>
-      </c>
-      <c r="V6" s="89" t="s">
-        <v>1224</v>
       </c>
       <c r="W6" s="89"/>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="87" t="s">
+        <v>1224</v>
+      </c>
+      <c r="B7" s="91" t="s">
         <v>1225</v>
       </c>
-      <c r="B7" s="91" t="s">
+      <c r="C7" s="10" t="s">
         <v>1226</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>1227</v>
       </c>
       <c r="D7" s="10" t="s">
         <v>986</v>
       </c>
       <c r="E7" s="91" t="s">
+        <v>1227</v>
+      </c>
+      <c r="F7" s="89" t="s">
         <v>1228</v>
       </c>
-      <c r="F7" s="89" t="s">
+      <c r="G7" s="89" t="s">
         <v>1229</v>
       </c>
-      <c r="G7" s="89" t="s">
+      <c r="H7" s="89" t="s">
         <v>1230</v>
       </c>
-      <c r="H7" s="89" t="s">
+      <c r="I7" s="0" t="s">
         <v>1231</v>
       </c>
-      <c r="I7" s="0" t="s">
+      <c r="J7" s="89" t="s">
         <v>1232</v>
       </c>
-      <c r="J7" s="89" t="s">
+      <c r="K7" s="89" t="s">
         <v>1233</v>
-      </c>
-      <c r="K7" s="89" t="s">
-        <v>1234</v>
       </c>
       <c r="L7" s="89" t="s">
         <v>790</v>
       </c>
       <c r="M7" s="89" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="N7" s="10"/>
       <c r="O7" s="10"/>
       <c r="P7" s="10"/>
       <c r="Q7" s="10"/>
       <c r="R7" s="89" t="s">
+        <v>1235</v>
+      </c>
+      <c r="S7" s="89" t="s">
         <v>1236</v>
       </c>
-      <c r="S7" s="89" t="s">
+      <c r="T7" s="89" t="s">
         <v>1237</v>
       </c>
-      <c r="T7" s="89" t="s">
+      <c r="U7" s="89" t="s">
         <v>1238</v>
       </c>
-      <c r="U7" s="89" t="s">
+      <c r="V7" s="89" t="s">
         <v>1239</v>
-      </c>
-      <c r="V7" s="89" t="s">
-        <v>1240</v>
       </c>
       <c r="W7" s="89"/>
     </row>
@@ -25871,80 +25874,80 @@
         <v>850</v>
       </c>
       <c r="B8" s="91" t="s">
+        <v>1225</v>
+      </c>
+      <c r="C8" s="10" t="s">
         <v>1226</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>1227</v>
       </c>
       <c r="D8" s="10" t="s">
         <v>986</v>
       </c>
       <c r="E8" s="91" t="s">
+        <v>1227</v>
+      </c>
+      <c r="F8" s="89" t="s">
         <v>1228</v>
       </c>
-      <c r="F8" s="89" t="s">
+      <c r="G8" s="89" t="s">
         <v>1229</v>
       </c>
-      <c r="G8" s="89" t="s">
+      <c r="H8" s="89" t="s">
         <v>1230</v>
       </c>
-      <c r="H8" s="89" t="s">
+      <c r="I8" s="0" t="s">
         <v>1231</v>
       </c>
-      <c r="I8" s="0" t="s">
+      <c r="J8" s="89" t="s">
         <v>1232</v>
       </c>
-      <c r="J8" s="89" t="s">
+      <c r="K8" s="89" t="s">
         <v>1233</v>
-      </c>
-      <c r="K8" s="89" t="s">
-        <v>1234</v>
       </c>
       <c r="L8" s="89" t="s">
         <v>790</v>
       </c>
       <c r="M8" s="89" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="N8" s="10"/>
       <c r="O8" s="10"/>
       <c r="P8" s="10"/>
       <c r="Q8" s="10"/>
       <c r="R8" s="89" t="s">
+        <v>1235</v>
+      </c>
+      <c r="S8" s="89" t="s">
         <v>1236</v>
       </c>
-      <c r="S8" s="89" t="s">
+      <c r="T8" s="89" t="s">
         <v>1237</v>
       </c>
-      <c r="T8" s="89" t="s">
+      <c r="U8" s="89" t="s">
         <v>1238</v>
       </c>
-      <c r="U8" s="89" t="s">
+      <c r="V8" s="89" t="s">
         <v>1239</v>
-      </c>
-      <c r="V8" s="89" t="s">
-        <v>1240</v>
       </c>
       <c r="W8" s="89"/>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="87" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="B9" s="88" t="s">
         <v>998</v>
       </c>
       <c r="C9" s="92" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="D9" s="92" t="s">
+        <v>1241</v>
+      </c>
+      <c r="E9" s="10" t="s">
         <v>1242</v>
       </c>
-      <c r="E9" s="10" t="s">
+      <c r="F9" s="92" t="s">
         <v>1243</v>
-      </c>
-      <c r="F9" s="92" t="s">
-        <v>1244</v>
       </c>
       <c r="G9" s="89"/>
       <c r="H9" s="89"/>
@@ -25958,16 +25961,16 @@
       <c r="P9" s="10"/>
       <c r="Q9" s="10"/>
       <c r="R9" s="89" t="s">
+        <v>1244</v>
+      </c>
+      <c r="S9" s="89" t="s">
         <v>1245</v>
       </c>
-      <c r="S9" s="89" t="s">
+      <c r="T9" s="89" t="s">
         <v>1246</v>
       </c>
-      <c r="T9" s="89" t="s">
+      <c r="U9" s="89" t="s">
         <v>1247</v>
-      </c>
-      <c r="U9" s="89" t="s">
-        <v>1248</v>
       </c>
       <c r="V9" s="89"/>
       <c r="W9" s="89"/>
@@ -25977,59 +25980,59 @@
         <v>878</v>
       </c>
       <c r="B10" s="88" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="C10" s="88" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="D10" s="0" t="s">
         <v>1014</v>
       </c>
       <c r="E10" s="88" t="s">
+        <v>1249</v>
+      </c>
+      <c r="F10" s="88" t="s">
         <v>1250</v>
       </c>
-      <c r="F10" s="88" t="s">
+      <c r="G10" s="88" t="s">
         <v>1251</v>
       </c>
-      <c r="G10" s="88" t="s">
+      <c r="H10" s="88" t="s">
         <v>1252</v>
       </c>
-      <c r="H10" s="88" t="s">
+      <c r="I10" s="89" t="s">
         <v>1253</v>
       </c>
-      <c r="I10" s="89" t="s">
+      <c r="J10" s="10" t="s">
+        <v>1242</v>
+      </c>
+      <c r="K10" s="88" t="s">
         <v>1254</v>
       </c>
-      <c r="J10" s="10" t="s">
-        <v>1243</v>
-      </c>
-      <c r="K10" s="88" t="s">
+      <c r="L10" s="88" t="s">
         <v>1255</v>
       </c>
-      <c r="L10" s="88" t="s">
+      <c r="M10" s="88" t="s">
         <v>1256</v>
-      </c>
-      <c r="M10" s="88" t="s">
-        <v>1257</v>
       </c>
       <c r="N10" s="10"/>
       <c r="O10" s="10"/>
       <c r="P10" s="10"/>
       <c r="Q10" s="10"/>
       <c r="R10" s="89" t="s">
+        <v>1257</v>
+      </c>
+      <c r="S10" s="89" t="s">
         <v>1258</v>
       </c>
-      <c r="S10" s="89" t="s">
+      <c r="T10" s="89" t="s">
         <v>1259</v>
       </c>
-      <c r="T10" s="89" t="s">
+      <c r="U10" s="89" t="s">
         <v>1260</v>
       </c>
-      <c r="U10" s="89" t="s">
+      <c r="V10" s="89" t="s">
         <v>1261</v>
-      </c>
-      <c r="V10" s="89" t="s">
-        <v>1262</v>
       </c>
       <c r="W10" s="89"/>
     </row>
@@ -26041,25 +26044,25 @@
         <v>790</v>
       </c>
       <c r="C11" s="89" t="s">
+        <v>1262</v>
+      </c>
+      <c r="D11" s="89" t="s">
         <v>1263</v>
       </c>
-      <c r="D11" s="89" t="s">
+      <c r="E11" s="88" t="s">
         <v>1264</v>
       </c>
-      <c r="E11" s="88" t="s">
+      <c r="F11" s="10" t="s">
         <v>1265</v>
       </c>
-      <c r="F11" s="10" t="s">
+      <c r="G11" s="88" t="s">
         <v>1266</v>
-      </c>
-      <c r="G11" s="88" t="s">
-        <v>1267</v>
       </c>
       <c r="H11" s="88" t="s">
         <v>803</v>
       </c>
       <c r="I11" s="88" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="J11" s="88" t="s">
         <v>1037</v>
@@ -26072,52 +26075,52 @@
       <c r="P11" s="10"/>
       <c r="Q11" s="10"/>
       <c r="R11" s="89" t="s">
+        <v>1268</v>
+      </c>
+      <c r="S11" s="89" t="s">
         <v>1269</v>
       </c>
-      <c r="S11" s="89" t="s">
+      <c r="T11" s="89" t="s">
         <v>1270</v>
       </c>
-      <c r="T11" s="89" t="s">
+      <c r="U11" s="89" t="s">
         <v>1271</v>
       </c>
-      <c r="U11" s="89" t="s">
+      <c r="V11" s="89" t="s">
         <v>1272</v>
-      </c>
-      <c r="V11" s="89" t="s">
-        <v>1273</v>
       </c>
       <c r="W11" s="89"/>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="87" t="s">
+        <v>1273</v>
+      </c>
+      <c r="B12" s="88" t="s">
         <v>1274</v>
       </c>
-      <c r="B12" s="88" t="s">
+      <c r="C12" s="88" t="s">
+        <v>1252</v>
+      </c>
+      <c r="D12" s="88" t="s">
         <v>1275</v>
       </c>
-      <c r="C12" s="88" t="s">
-        <v>1253</v>
-      </c>
-      <c r="D12" s="88" t="s">
+      <c r="E12" s="88" t="s">
         <v>1276</v>
       </c>
-      <c r="E12" s="88" t="s">
-        <v>1277</v>
-      </c>
       <c r="F12" s="88" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="G12" s="89" t="s">
         <v>803</v>
       </c>
       <c r="H12" s="88" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="I12" s="88" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="J12" s="88" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
       <c r="K12" s="10"/>
       <c r="L12" s="10"/>
@@ -26127,19 +26130,19 @@
       <c r="P12" s="10"/>
       <c r="Q12" s="10"/>
       <c r="R12" s="89" t="s">
+        <v>1278</v>
+      </c>
+      <c r="S12" s="89" t="s">
         <v>1279</v>
       </c>
-      <c r="S12" s="89" t="s">
+      <c r="T12" s="89" t="s">
         <v>1280</v>
       </c>
-      <c r="T12" s="89" t="s">
+      <c r="U12" s="89" t="s">
         <v>1281</v>
       </c>
-      <c r="U12" s="89" t="s">
+      <c r="V12" s="89" t="s">
         <v>1282</v>
-      </c>
-      <c r="V12" s="89" t="s">
-        <v>1283</v>
       </c>
       <c r="W12" s="89"/>
     </row>
@@ -26148,22 +26151,22 @@
         <v>928</v>
       </c>
       <c r="B13" s="89" t="s">
+        <v>1283</v>
+      </c>
+      <c r="C13" s="89" t="s">
         <v>1284</v>
       </c>
-      <c r="C13" s="89" t="s">
+      <c r="D13" s="88" t="s">
         <v>1285</v>
       </c>
-      <c r="D13" s="88" t="s">
+      <c r="E13" s="88" t="s">
         <v>1286</v>
       </c>
-      <c r="E13" s="88" t="s">
+      <c r="F13" s="10" t="s">
         <v>1287</v>
       </c>
-      <c r="F13" s="10" t="s">
-        <v>1288</v>
-      </c>
       <c r="G13" s="89" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="H13" s="89"/>
       <c r="I13" s="89"/>
@@ -26176,52 +26179,52 @@
       <c r="P13" s="10"/>
       <c r="Q13" s="10"/>
       <c r="R13" s="89" t="s">
+        <v>1288</v>
+      </c>
+      <c r="S13" s="89" t="s">
         <v>1289</v>
       </c>
-      <c r="S13" s="89" t="s">
+      <c r="T13" s="89" t="s">
         <v>1290</v>
       </c>
-      <c r="T13" s="89" t="s">
+      <c r="U13" s="89" t="s">
         <v>1291</v>
       </c>
-      <c r="U13" s="89" t="s">
+      <c r="V13" s="89" t="s">
         <v>1292</v>
-      </c>
-      <c r="V13" s="89" t="s">
-        <v>1293</v>
       </c>
       <c r="W13" s="89"/>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="87" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="B14" s="89" t="s">
         <v>1058</v>
       </c>
       <c r="C14" s="88" t="s">
+        <v>1294</v>
+      </c>
+      <c r="D14" s="88" t="s">
+        <v>1252</v>
+      </c>
+      <c r="E14" s="88" t="s">
         <v>1295</v>
       </c>
-      <c r="D14" s="88" t="s">
-        <v>1253</v>
-      </c>
-      <c r="E14" s="88" t="s">
+      <c r="F14" s="10" t="s">
         <v>1296</v>
       </c>
-      <c r="F14" s="10" t="s">
-        <v>1297</v>
-      </c>
       <c r="G14" s="89" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="H14" s="89" t="s">
         <v>803</v>
       </c>
       <c r="I14" s="88" t="s">
+        <v>1297</v>
+      </c>
+      <c r="J14" s="88" t="s">
         <v>1298</v>
-      </c>
-      <c r="J14" s="88" t="s">
-        <v>1299</v>
       </c>
       <c r="K14" s="89" t="s">
         <v>998</v>
@@ -26233,28 +26236,28 @@
       <c r="P14" s="10"/>
       <c r="Q14" s="10"/>
       <c r="R14" s="89" t="s">
+        <v>1299</v>
+      </c>
+      <c r="S14" s="89" t="s">
         <v>1300</v>
       </c>
-      <c r="S14" s="89" t="s">
+      <c r="T14" s="89" t="s">
         <v>1301</v>
       </c>
-      <c r="T14" s="89" t="s">
+      <c r="U14" s="89" t="s">
         <v>1302</v>
       </c>
-      <c r="U14" s="89" t="s">
+      <c r="V14" s="89" t="s">
         <v>1303</v>
-      </c>
-      <c r="V14" s="89" t="s">
-        <v>1304</v>
       </c>
       <c r="W14" s="89"/>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="87" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="B17" s="87" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="C17" s="87" t="s">
         <v>937</v>
@@ -26263,16 +26266,16 @@
         <v>759</v>
       </c>
       <c r="E17" s="87" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="F17" s="87" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="G17" s="87" t="s">
         <v>850</v>
       </c>
       <c r="H17" s="87" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="I17" s="87" t="s">
         <v>878</v>
@@ -26281,13 +26284,13 @@
         <v>903</v>
       </c>
       <c r="K17" s="87" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="L17" s="87" t="s">
         <v>928</v>
       </c>
       <c r="M17" s="87" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26298,34 +26301,34 @@
         <v>790</v>
       </c>
       <c r="C18" s="88" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="D18" s="88" t="s">
         <v>803</v>
       </c>
       <c r="E18" s="88" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="F18" s="91" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="G18" s="91" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="H18" s="88" t="s">
         <v>998</v>
       </c>
       <c r="I18" s="88" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="J18" s="89" t="s">
         <v>790</v>
       </c>
       <c r="K18" s="88" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
       <c r="L18" s="89" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="M18" s="89" t="s">
         <v>1058</v>
@@ -26333,43 +26336,43 @@
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="88" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="B19" s="88" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="C19" s="88" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="D19" s="88" t="s">
         <v>973</v>
       </c>
       <c r="E19" s="89" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="F19" s="10" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="G19" s="10" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="H19" s="92" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="I19" s="88" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="J19" s="89" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="K19" s="88" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="L19" s="89" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="M19" s="88" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26377,13 +26380,13 @@
         <v>998</v>
       </c>
       <c r="B20" s="88" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="C20" s="88" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="D20" s="88" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="E20" s="88" t="s">
         <v>998</v>
@@ -26395,68 +26398,68 @@
         <v>986</v>
       </c>
       <c r="H20" s="92" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="I20" s="0" t="s">
         <v>1014</v>
       </c>
       <c r="J20" s="89" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="K20" s="88" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
       <c r="L20" s="88" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="M20" s="88" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="10" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="B21" s="88" t="s">
         <v>998</v>
       </c>
       <c r="C21" s="88" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="D21" s="88" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="E21" s="88" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="F21" s="91" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="G21" s="91" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="H21" s="10" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="I21" s="88" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="J21" s="88" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="K21" s="88" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="L21" s="88" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="M21" s="88" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="10" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="B22" s="88" t="s">
         <v>803</v>
@@ -26465,71 +26468,71 @@
         <v>803</v>
       </c>
       <c r="D22" s="89" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="E22" s="89" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="F22" s="89" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="G22" s="89" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="H22" s="92" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="I22" s="88" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="J22" s="10" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="K22" s="88" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="L22" s="10" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="M22" s="10" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="88" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="B23" s="89" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="C23" s="88" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="D23" s="88" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="E23" s="10"/>
       <c r="F23" s="89" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="G23" s="89" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="H23" s="89"/>
       <c r="I23" s="88" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="J23" s="88" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="K23" s="89" t="s">
         <v>803</v>
       </c>
       <c r="L23" s="89" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="M23" s="89" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26537,28 +26540,28 @@
         <v>803</v>
       </c>
       <c r="B24" s="88" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="C24" s="89"/>
       <c r="D24" s="88" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="E24" s="89"/>
       <c r="F24" s="89" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="G24" s="89" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="H24" s="89"/>
       <c r="I24" s="88" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="J24" s="88" t="s">
         <v>803</v>
       </c>
       <c r="K24" s="88" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="L24" s="89"/>
       <c r="M24" s="89" t="s">
@@ -26567,85 +26570,85 @@
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="88" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="B25" s="88"/>
       <c r="C25" s="89"/>
       <c r="D25" s="88" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="E25" s="89"/>
       <c r="F25" s="0" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="G25" s="0" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="H25" s="89"/>
       <c r="I25" s="89" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="J25" s="88" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="K25" s="88" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="L25" s="89"/>
       <c r="M25" s="88" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="88" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="B26" s="88"/>
       <c r="C26" s="89"/>
       <c r="D26" s="89" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="E26" s="89"/>
       <c r="F26" s="89" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="G26" s="89" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="H26" s="89"/>
       <c r="I26" s="10" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="J26" s="88" t="s">
         <v>1037</v>
       </c>
       <c r="K26" s="88" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
       <c r="L26" s="89"/>
       <c r="M26" s="88" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="10" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="B27" s="89"/>
       <c r="C27" s="89"/>
       <c r="D27" s="89" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="E27" s="89"/>
       <c r="F27" s="89" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="G27" s="89" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="H27" s="89"/>
       <c r="I27" s="88" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="J27" s="88"/>
       <c r="K27" s="10"/>
@@ -26656,12 +26659,12 @@
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="88" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="B28" s="89"/>
       <c r="C28" s="89"/>
       <c r="D28" s="10" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="E28" s="89"/>
       <c r="F28" s="89" t="s">
@@ -26672,7 +26675,7 @@
       </c>
       <c r="H28" s="89"/>
       <c r="I28" s="88" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="J28" s="89"/>
       <c r="K28" s="10"/>
@@ -26681,21 +26684,21 @@
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="88" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="B29" s="89"/>
       <c r="C29" s="89"/>
       <c r="D29" s="89"/>
       <c r="E29" s="89"/>
       <c r="F29" s="89" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="G29" s="89" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="H29" s="89"/>
       <c r="I29" s="88" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="J29" s="89"/>
       <c r="K29" s="10"/>
@@ -26704,7 +26707,7 @@
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="10" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
       <c r="B30" s="10"/>
       <c r="C30" s="10"/>
@@ -26721,7 +26724,7 @@
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="88" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="B31" s="10"/>
       <c r="C31" s="10"/>
@@ -26754,7 +26757,7 @@
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="88" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="B33" s="10"/>
       <c r="C33" s="10"/>
@@ -26786,7 +26789,7 @@
   </sheetPr>
   <dimension ref="A1:C222"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -26801,7 +26804,7 @@
         <v>7</v>
       </c>
       <c r="B1" s="94" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26810,10 +26813,10 @@
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="95" t="s">
+        <v>1305</v>
+      </c>
+      <c r="B3" s="95" t="s">
         <v>1306</v>
-      </c>
-      <c r="B3" s="95" t="s">
-        <v>1307</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26821,15 +26824,15 @@
         <v>845</v>
       </c>
       <c r="B4" s="95" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="95" t="s">
+        <v>1308</v>
+      </c>
+      <c r="B5" s="95" t="s">
         <v>1309</v>
-      </c>
-      <c r="B5" s="95" t="s">
-        <v>1310</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26837,15 +26840,15 @@
         <v>846</v>
       </c>
       <c r="B6" s="95" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="95" t="s">
+        <v>1311</v>
+      </c>
+      <c r="B7" s="95" t="s">
         <v>1312</v>
-      </c>
-      <c r="B7" s="95" t="s">
-        <v>1313</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26853,7 +26856,7 @@
         <v>847</v>
       </c>
       <c r="B8" s="95" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26861,7 +26864,7 @@
         <v>848</v>
       </c>
       <c r="B9" s="95" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26869,47 +26872,47 @@
         <v>849</v>
       </c>
       <c r="B10" s="95" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="95" t="s">
+        <v>1316</v>
+      </c>
+      <c r="B11" s="95" t="s">
         <v>1317</v>
-      </c>
-      <c r="B11" s="95" t="s">
-        <v>1318</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="95" t="s">
+        <v>1318</v>
+      </c>
+      <c r="B12" s="95" t="s">
         <v>1319</v>
-      </c>
-      <c r="B12" s="95" t="s">
-        <v>1320</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="95" t="s">
+        <v>1320</v>
+      </c>
+      <c r="B13" s="95" t="s">
         <v>1321</v>
-      </c>
-      <c r="B13" s="95" t="s">
-        <v>1322</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="95" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="B14" s="95" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="95" t="s">
+        <v>1323</v>
+      </c>
+      <c r="B15" s="95" t="s">
         <v>1324</v>
-      </c>
-      <c r="B15" s="95" t="s">
-        <v>1325</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26917,15 +26920,15 @@
         <v>850</v>
       </c>
       <c r="B16" s="95" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="95" t="s">
+        <v>1326</v>
+      </c>
+      <c r="B17" s="95" t="s">
         <v>1327</v>
-      </c>
-      <c r="B17" s="95" t="s">
-        <v>1328</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26933,7 +26936,7 @@
         <v>851</v>
       </c>
       <c r="B18" s="95" t="s">
-        <v>1329</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26941,7 +26944,7 @@
         <v>705</v>
       </c>
       <c r="B19" s="95" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26949,7 +26952,7 @@
         <v>852</v>
       </c>
       <c r="B20" s="95" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26957,31 +26960,31 @@
         <v>853</v>
       </c>
       <c r="B21" s="95" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="95" t="s">
+        <v>1332</v>
+      </c>
+      <c r="B22" s="95" t="s">
         <v>1333</v>
-      </c>
-      <c r="B22" s="95" t="s">
-        <v>1334</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="95" t="s">
+        <v>1334</v>
+      </c>
+      <c r="B23" s="95" t="s">
         <v>1335</v>
-      </c>
-      <c r="B23" s="95" t="s">
-        <v>1336</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="95" t="s">
+        <v>1336</v>
+      </c>
+      <c r="B24" s="95" t="s">
         <v>1337</v>
-      </c>
-      <c r="B24" s="95" t="s">
-        <v>1338</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26989,15 +26992,15 @@
         <v>854</v>
       </c>
       <c r="B25" s="95" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="95" t="s">
+        <v>1339</v>
+      </c>
+      <c r="B26" s="95" t="s">
         <v>1340</v>
-      </c>
-      <c r="B26" s="95" t="s">
-        <v>1341</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27005,15 +27008,15 @@
         <v>855</v>
       </c>
       <c r="B27" s="95" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="95" t="s">
+        <v>1342</v>
+      </c>
+      <c r="B28" s="95" t="s">
         <v>1343</v>
-      </c>
-      <c r="B28" s="95" t="s">
-        <v>1344</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27021,15 +27024,15 @@
         <v>719</v>
       </c>
       <c r="B29" s="95" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="95" t="s">
+        <v>1345</v>
+      </c>
+      <c r="B30" s="95" t="s">
         <v>1346</v>
-      </c>
-      <c r="B30" s="95" t="s">
-        <v>1347</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27037,7 +27040,7 @@
         <v>728</v>
       </c>
       <c r="B31" s="95" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27045,15 +27048,15 @@
         <v>733</v>
       </c>
       <c r="B32" s="95" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="95" t="s">
+        <v>1349</v>
+      </c>
+      <c r="B33" s="95" t="s">
         <v>1350</v>
-      </c>
-      <c r="B33" s="95" t="s">
-        <v>1351</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27061,31 +27064,31 @@
         <v>856</v>
       </c>
       <c r="B34" s="95" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="95" t="s">
+        <v>1352</v>
+      </c>
+      <c r="B35" s="95" t="s">
         <v>1353</v>
-      </c>
-      <c r="B35" s="95" t="s">
-        <v>1354</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="95" t="s">
+        <v>1354</v>
+      </c>
+      <c r="B36" s="95" t="s">
         <v>1355</v>
-      </c>
-      <c r="B36" s="95" t="s">
-        <v>1356</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="95" t="s">
+        <v>1356</v>
+      </c>
+      <c r="B37" s="95" t="s">
         <v>1357</v>
-      </c>
-      <c r="B37" s="95" t="s">
-        <v>1358</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27093,15 +27096,15 @@
         <v>858</v>
       </c>
       <c r="B38" s="95" t="s">
-        <v>1359</v>
+        <v>1358</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="95" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="B39" s="95" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27109,15 +27112,15 @@
         <v>859</v>
       </c>
       <c r="B40" s="95" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="95" t="s">
+        <v>1361</v>
+      </c>
+      <c r="B41" s="95" t="s">
         <v>1362</v>
-      </c>
-      <c r="B41" s="95" t="s">
-        <v>1363</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27125,7 +27128,7 @@
         <v>860</v>
       </c>
       <c r="B42" s="95" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27133,7 +27136,7 @@
         <v>861</v>
       </c>
       <c r="B43" s="95" t="s">
-        <v>1365</v>
+        <v>1364</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27141,7 +27144,7 @@
         <v>862</v>
       </c>
       <c r="B44" s="95" t="s">
-        <v>1366</v>
+        <v>1365</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27149,7 +27152,7 @@
         <v>863</v>
       </c>
       <c r="B45" s="95" t="s">
-        <v>1367</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27157,7 +27160,7 @@
         <v>864</v>
       </c>
       <c r="B46" s="95" t="s">
-        <v>1368</v>
+        <v>1367</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27165,7 +27168,7 @@
         <v>865</v>
       </c>
       <c r="B47" s="95" t="s">
-        <v>1369</v>
+        <v>1368</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27173,23 +27176,23 @@
         <v>866</v>
       </c>
       <c r="B48" s="95" t="s">
-        <v>1370</v>
+        <v>1369</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="95" t="s">
+        <v>1370</v>
+      </c>
+      <c r="B49" s="95" t="s">
         <v>1371</v>
-      </c>
-      <c r="B49" s="95" t="s">
-        <v>1372</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="95" t="s">
+        <v>1372</v>
+      </c>
+      <c r="B50" s="95" t="s">
         <v>1373</v>
-      </c>
-      <c r="B50" s="95" t="s">
-        <v>1374</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27197,7 +27200,7 @@
         <v>867</v>
       </c>
       <c r="B51" s="95" t="s">
-        <v>1375</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27205,15 +27208,15 @@
         <v>868</v>
       </c>
       <c r="B52" s="95" t="s">
-        <v>1376</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="95" t="s">
+        <v>1376</v>
+      </c>
+      <c r="B53" s="95" t="s">
         <v>1377</v>
-      </c>
-      <c r="B53" s="95" t="s">
-        <v>1378</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27221,7 +27224,7 @@
         <v>869</v>
       </c>
       <c r="B54" s="95" t="s">
-        <v>1379</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27229,7 +27232,7 @@
         <v>870</v>
       </c>
       <c r="B55" s="95" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27237,7 +27240,7 @@
         <v>871</v>
       </c>
       <c r="B56" s="95" t="s">
-        <v>1381</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27245,7 +27248,7 @@
         <v>872</v>
       </c>
       <c r="B57" s="95" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27253,7 +27256,7 @@
         <v>873</v>
       </c>
       <c r="B58" s="95" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27261,7 +27264,7 @@
         <v>874</v>
       </c>
       <c r="B59" s="95" t="s">
-        <v>1384</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27269,7 +27272,7 @@
         <v>875</v>
       </c>
       <c r="B60" s="95" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27277,23 +27280,23 @@
         <v>752</v>
       </c>
       <c r="B61" s="95" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="95" t="s">
+        <v>1386</v>
+      </c>
+      <c r="B62" s="95" t="s">
         <v>1387</v>
-      </c>
-      <c r="B62" s="95" t="s">
-        <v>1388</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="95" t="s">
+        <v>1388</v>
+      </c>
+      <c r="B63" s="95" t="s">
         <v>1389</v>
-      </c>
-      <c r="B63" s="95" t="s">
-        <v>1390</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27301,7 +27304,7 @@
         <v>876</v>
       </c>
       <c r="B64" s="95" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27309,127 +27312,127 @@
         <v>877</v>
       </c>
       <c r="B65" s="95" t="s">
-        <v>1392</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="95" t="s">
+        <v>1392</v>
+      </c>
+      <c r="B66" s="95" t="s">
         <v>1393</v>
-      </c>
-      <c r="B66" s="95" t="s">
-        <v>1394</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="95" t="s">
+        <v>1394</v>
+      </c>
+      <c r="B67" s="95" t="s">
         <v>1395</v>
-      </c>
-      <c r="B67" s="95" t="s">
-        <v>1396</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="95" t="s">
+        <v>1396</v>
+      </c>
+      <c r="B68" s="95" t="s">
         <v>1397</v>
-      </c>
-      <c r="B68" s="95" t="s">
-        <v>1398</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="95" t="s">
+        <v>1398</v>
+      </c>
+      <c r="B69" s="95" t="s">
         <v>1399</v>
-      </c>
-      <c r="B69" s="95" t="s">
-        <v>1400</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="95" t="s">
+        <v>1400</v>
+      </c>
+      <c r="B70" s="95" t="s">
         <v>1401</v>
-      </c>
-      <c r="B70" s="95" t="s">
-        <v>1402</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="95" t="s">
+        <v>1402</v>
+      </c>
+      <c r="B71" s="95" t="s">
         <v>1403</v>
-      </c>
-      <c r="B71" s="95" t="s">
-        <v>1404</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="95" t="s">
+        <v>1404</v>
+      </c>
+      <c r="B72" s="95" t="s">
         <v>1405</v>
-      </c>
-      <c r="B72" s="95" t="s">
-        <v>1406</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="95" t="s">
+        <v>1406</v>
+      </c>
+      <c r="B73" s="95" t="s">
         <v>1407</v>
-      </c>
-      <c r="B73" s="95" t="s">
-        <v>1408</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="95" t="s">
+        <v>1408</v>
+      </c>
+      <c r="B74" s="95" t="s">
         <v>1409</v>
-      </c>
-      <c r="B74" s="95" t="s">
-        <v>1410</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="95" t="s">
+        <v>1410</v>
+      </c>
+      <c r="B75" s="95" t="s">
         <v>1411</v>
-      </c>
-      <c r="B75" s="95" t="s">
-        <v>1412</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="95" t="s">
+        <v>1412</v>
+      </c>
+      <c r="B76" s="95" t="s">
         <v>1413</v>
-      </c>
-      <c r="B76" s="95" t="s">
-        <v>1414</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="95" t="s">
+        <v>1414</v>
+      </c>
+      <c r="B77" s="95" t="s">
         <v>1415</v>
-      </c>
-      <c r="B77" s="95" t="s">
-        <v>1416</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="95" t="s">
+        <v>1416</v>
+      </c>
+      <c r="B78" s="95" t="s">
         <v>1417</v>
-      </c>
-      <c r="B78" s="95" t="s">
-        <v>1418</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="95" t="s">
+        <v>1418</v>
+      </c>
+      <c r="B79" s="95" t="s">
         <v>1419</v>
-      </c>
-      <c r="B79" s="95" t="s">
-        <v>1420</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="95" t="s">
+        <v>1420</v>
+      </c>
+      <c r="B80" s="95" t="s">
         <v>1421</v>
-      </c>
-      <c r="B80" s="95" t="s">
-        <v>1422</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27437,15 +27440,15 @@
         <v>878</v>
       </c>
       <c r="B81" s="95" t="s">
-        <v>1423</v>
+        <v>1422</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="95" t="s">
+        <v>1423</v>
+      </c>
+      <c r="B82" s="95" t="s">
         <v>1424</v>
-      </c>
-      <c r="B82" s="95" t="s">
-        <v>1425</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27453,23 +27456,23 @@
         <v>879</v>
       </c>
       <c r="B83" s="95" t="s">
-        <v>1426</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="95" t="s">
+        <v>1426</v>
+      </c>
+      <c r="B84" s="95" t="s">
         <v>1427</v>
-      </c>
-      <c r="B84" s="95" t="s">
-        <v>1428</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="95" t="s">
+        <v>1428</v>
+      </c>
+      <c r="B85" s="95" t="s">
         <v>1429</v>
-      </c>
-      <c r="B85" s="95" t="s">
-        <v>1430</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27477,15 +27480,15 @@
         <v>880</v>
       </c>
       <c r="B86" s="95" t="s">
-        <v>1431</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="95" t="s">
+        <v>1431</v>
+      </c>
+      <c r="B87" s="95" t="s">
         <v>1432</v>
-      </c>
-      <c r="B87" s="95" t="s">
-        <v>1433</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27493,15 +27496,15 @@
         <v>881</v>
       </c>
       <c r="B88" s="95" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="95" t="s">
+        <v>1434</v>
+      </c>
+      <c r="B89" s="95" t="s">
         <v>1435</v>
-      </c>
-      <c r="B89" s="95" t="s">
-        <v>1436</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27509,7 +27512,7 @@
         <v>882</v>
       </c>
       <c r="B90" s="95" t="s">
-        <v>1437</v>
+        <v>1436</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27517,7 +27520,7 @@
         <v>883</v>
       </c>
       <c r="B91" s="95" t="s">
-        <v>1438</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27525,7 +27528,7 @@
         <v>884</v>
       </c>
       <c r="B92" s="95" t="s">
-        <v>1439</v>
+        <v>1438</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27533,7 +27536,7 @@
         <v>885</v>
       </c>
       <c r="B93" s="95" t="s">
-        <v>1440</v>
+        <v>1439</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27541,15 +27544,15 @@
         <v>886</v>
       </c>
       <c r="B94" s="95" t="s">
-        <v>1441</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="95" t="s">
+        <v>1441</v>
+      </c>
+      <c r="B95" s="95" t="s">
         <v>1442</v>
-      </c>
-      <c r="B95" s="95" t="s">
-        <v>1443</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27557,7 +27560,7 @@
         <v>888</v>
       </c>
       <c r="B96" s="95" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27565,7 +27568,7 @@
         <v>715</v>
       </c>
       <c r="B97" s="95" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27573,7 +27576,7 @@
         <v>889</v>
       </c>
       <c r="B98" s="97" t="s">
-        <v>1446</v>
+        <v>1445</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27581,7 +27584,7 @@
         <v>890</v>
       </c>
       <c r="B99" s="97" t="s">
-        <v>1447</v>
+        <v>1446</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27589,15 +27592,15 @@
         <v>891</v>
       </c>
       <c r="B100" s="97" t="s">
-        <v>1448</v>
+        <v>1447</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="95" t="s">
+        <v>1448</v>
+      </c>
+      <c r="B101" s="97" t="s">
         <v>1449</v>
-      </c>
-      <c r="B101" s="97" t="s">
-        <v>1450</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27605,7 +27608,7 @@
         <v>892</v>
       </c>
       <c r="B102" s="97" t="s">
-        <v>1451</v>
+        <v>1450</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27613,7 +27616,7 @@
         <v>893</v>
       </c>
       <c r="B103" s="97" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27621,7 +27624,7 @@
         <v>894</v>
       </c>
       <c r="B104" s="97" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27629,15 +27632,15 @@
         <v>895</v>
       </c>
       <c r="B105" s="97" t="s">
-        <v>1454</v>
+        <v>1453</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="95" t="s">
+        <v>1454</v>
+      </c>
+      <c r="B106" s="97" t="s">
         <v>1455</v>
-      </c>
-      <c r="B106" s="97" t="s">
-        <v>1456</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27645,7 +27648,7 @@
         <v>896</v>
       </c>
       <c r="B107" s="97" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27653,7 +27656,7 @@
         <v>897</v>
       </c>
       <c r="B108" s="97" t="s">
-        <v>1458</v>
+        <v>1457</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27661,7 +27664,7 @@
         <v>898</v>
       </c>
       <c r="B109" s="97" t="s">
-        <v>1459</v>
+        <v>1458</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27669,7 +27672,7 @@
         <v>899</v>
       </c>
       <c r="B110" s="97" t="s">
-        <v>1460</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27677,15 +27680,15 @@
         <v>796</v>
       </c>
       <c r="B111" s="97" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="95" t="s">
+        <v>1461</v>
+      </c>
+      <c r="B112" s="97" t="s">
         <v>1462</v>
-      </c>
-      <c r="B112" s="97" t="s">
-        <v>1463</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27693,7 +27696,7 @@
         <v>900</v>
       </c>
       <c r="B113" s="97" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27701,7 +27704,7 @@
         <v>901</v>
       </c>
       <c r="B114" s="97" t="s">
-        <v>1465</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27709,7 +27712,7 @@
         <v>902</v>
       </c>
       <c r="B115" s="97" t="s">
-        <v>1466</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27717,7 +27720,7 @@
         <v>903</v>
       </c>
       <c r="B116" s="97" t="s">
-        <v>1467</v>
+        <v>1466</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27725,31 +27728,31 @@
         <v>904</v>
       </c>
       <c r="B117" s="97" t="s">
-        <v>1468</v>
+        <v>1467</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="95" t="s">
+        <v>1468</v>
+      </c>
+      <c r="B118" s="97" t="s">
         <v>1469</v>
-      </c>
-      <c r="B118" s="97" t="s">
-        <v>1470</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="95" t="s">
+        <v>1470</v>
+      </c>
+      <c r="B119" s="97" t="s">
         <v>1471</v>
-      </c>
-      <c r="B119" s="97" t="s">
-        <v>1472</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="95" t="s">
+        <v>1472</v>
+      </c>
+      <c r="B120" s="97" t="s">
         <v>1473</v>
-      </c>
-      <c r="B120" s="97" t="s">
-        <v>1474</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27757,7 +27760,7 @@
         <v>905</v>
       </c>
       <c r="B121" s="97" t="s">
-        <v>1475</v>
+        <v>1474</v>
       </c>
       <c r="C121" s="98"/>
     </row>
@@ -27766,7 +27769,7 @@
         <v>906</v>
       </c>
       <c r="B122" s="97" t="s">
-        <v>1476</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27774,7 +27777,7 @@
         <v>907</v>
       </c>
       <c r="B123" s="97" t="s">
-        <v>1477</v>
+        <v>1476</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27782,7 +27785,7 @@
         <v>908</v>
       </c>
       <c r="B124" s="97" t="s">
-        <v>1478</v>
+        <v>1477</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27790,7 +27793,7 @@
         <v>909</v>
       </c>
       <c r="B125" s="97" t="s">
-        <v>1479</v>
+        <v>1478</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27798,7 +27801,7 @@
         <v>911</v>
       </c>
       <c r="B126" s="97" t="s">
-        <v>1480</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27806,7 +27809,7 @@
         <v>912</v>
       </c>
       <c r="B127" s="97" t="s">
-        <v>1481</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27814,7 +27817,7 @@
         <v>913</v>
       </c>
       <c r="B128" s="97" t="s">
-        <v>1482</v>
+        <v>1481</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27822,15 +27825,15 @@
         <v>914</v>
       </c>
       <c r="B129" s="97" t="s">
-        <v>1483</v>
+        <v>1482</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="95" t="s">
+        <v>1483</v>
+      </c>
+      <c r="B130" s="97" t="s">
         <v>1484</v>
-      </c>
-      <c r="B130" s="97" t="s">
-        <v>1485</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27838,7 +27841,7 @@
         <v>915</v>
       </c>
       <c r="B131" s="97" t="s">
-        <v>1486</v>
+        <v>1485</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27846,7 +27849,7 @@
         <v>916</v>
       </c>
       <c r="B132" s="97" t="s">
-        <v>1487</v>
+        <v>1486</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27854,7 +27857,7 @@
         <v>917</v>
       </c>
       <c r="B133" s="97" t="s">
-        <v>1488</v>
+        <v>1487</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27862,7 +27865,7 @@
         <v>918</v>
       </c>
       <c r="B134" s="97" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27870,7 +27873,7 @@
         <v>919</v>
       </c>
       <c r="B135" s="97" t="s">
-        <v>1490</v>
+        <v>1489</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27878,7 +27881,7 @@
         <v>920</v>
       </c>
       <c r="B136" s="97" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27886,7 +27889,7 @@
         <v>921</v>
       </c>
       <c r="B137" s="97" t="s">
-        <v>1492</v>
+        <v>1491</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27894,7 +27897,7 @@
         <v>922</v>
       </c>
       <c r="B138" s="97" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27902,7 +27905,7 @@
         <v>923</v>
       </c>
       <c r="B139" s="97" t="s">
-        <v>1494</v>
+        <v>1493</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27910,7 +27913,7 @@
         <v>924</v>
       </c>
       <c r="B140" s="97" t="s">
-        <v>1495</v>
+        <v>1494</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27918,7 +27921,7 @@
         <v>925</v>
       </c>
       <c r="B141" s="97" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27926,7 +27929,7 @@
         <v>926</v>
       </c>
       <c r="B142" s="97" t="s">
-        <v>1497</v>
+        <v>1496</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27934,15 +27937,15 @@
         <v>928</v>
       </c>
       <c r="B143" s="97" t="s">
-        <v>1498</v>
+        <v>1497</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="95" t="s">
+        <v>1498</v>
+      </c>
+      <c r="B144" s="97" t="s">
         <v>1499</v>
-      </c>
-      <c r="B144" s="97" t="s">
-        <v>1500</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27950,7 +27953,7 @@
         <v>929</v>
       </c>
       <c r="B145" s="97" t="s">
-        <v>1501</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27967,7 +27970,7 @@
     </row>
     <row r="148" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="95" t="s">
-        <v>1502</v>
+        <v>1501</v>
       </c>
       <c r="B148" s="99"/>
     </row>
@@ -27980,14 +27983,14 @@
     </row>
     <row r="150" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="100" t="s">
-        <v>1503</v>
+        <v>1502</v>
       </c>
       <c r="B150" s="99"/>
       <c r="C150" s="98"/>
     </row>
     <row r="151" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="100" t="s">
-        <v>1504</v>
+        <v>1503</v>
       </c>
       <c r="B151" s="99"/>
     </row>
@@ -28012,7 +28015,7 @@
     </row>
     <row r="155" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="100" t="s">
-        <v>1505</v>
+        <v>1504</v>
       </c>
       <c r="B155" s="99"/>
     </row>
@@ -28067,7 +28070,7 @@
     </row>
     <row r="164" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="100" t="s">
-        <v>1506</v>
+        <v>1505</v>
       </c>
       <c r="B164" s="99"/>
     </row>
@@ -28079,7 +28082,7 @@
     </row>
     <row r="166" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="100" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
       <c r="B166" s="99"/>
     </row>
@@ -28097,7 +28100,7 @@
     </row>
     <row r="169" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="100" t="s">
-        <v>1508</v>
+        <v>1507</v>
       </c>
       <c r="B169" s="101"/>
     </row>
@@ -28128,7 +28131,7 @@
     </row>
     <row r="174" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="95" t="s">
-        <v>1509</v>
+        <v>1508</v>
       </c>
       <c r="B174" s="102"/>
     </row>
@@ -28140,7 +28143,7 @@
     </row>
     <row r="176" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="95" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
       <c r="B176" s="102"/>
     </row>
@@ -28170,31 +28173,31 @@
     </row>
     <row r="181" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="95" t="s">
-        <v>1511</v>
+        <v>1510</v>
       </c>
       <c r="B181" s="102"/>
     </row>
     <row r="182" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="95" t="s">
-        <v>1512</v>
+        <v>1511</v>
       </c>
       <c r="B182" s="102"/>
     </row>
     <row r="183" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="95" t="s">
-        <v>1513</v>
+        <v>1512</v>
       </c>
       <c r="B183" s="102"/>
     </row>
     <row r="184" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="95" t="s">
-        <v>1514</v>
+        <v>1513</v>
       </c>
       <c r="B184" s="102"/>
     </row>
     <row r="185" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="95" t="s">
-        <v>1515</v>
+        <v>1514</v>
       </c>
       <c r="B185" s="102"/>
     </row>
@@ -28206,7 +28209,7 @@
     </row>
     <row r="187" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="95" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
       <c r="B187" s="102"/>
     </row>
@@ -28236,19 +28239,19 @@
     </row>
     <row r="192" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="95" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
       <c r="B192" s="102"/>
     </row>
     <row r="193" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="95" t="s">
-        <v>1518</v>
+        <v>1517</v>
       </c>
       <c r="B193" s="102"/>
     </row>
     <row r="194" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="95" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
       <c r="B194" s="102"/>
     </row>
@@ -28278,13 +28281,13 @@
     </row>
     <row r="199" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="95" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="B199" s="102"/>
     </row>
     <row r="200" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="95" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
       <c r="B200" s="102"/>
     </row>
@@ -28302,7 +28305,7 @@
     </row>
     <row r="203" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="95" t="s">
-        <v>1521</v>
+        <v>1520</v>
       </c>
       <c r="B203" s="102"/>
     </row>
@@ -28314,7 +28317,7 @@
     </row>
     <row r="205" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="95" t="s">
-        <v>1522</v>
+        <v>1521</v>
       </c>
       <c r="B205" s="102"/>
     </row>
@@ -28344,7 +28347,7 @@
     </row>
     <row r="210" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="95" t="s">
-        <v>1523</v>
+        <v>1522</v>
       </c>
       <c r="B210" s="102"/>
     </row>
@@ -28409,7 +28412,7 @@
   </sheetPr>
   <dimension ref="A1:D62"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A62" activeCellId="0" sqref="A62"/>
     </sheetView>
   </sheetViews>
@@ -28424,814 +28427,814 @@
   <sheetData>
     <row r="1" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="103" t="s">
+        <v>1523</v>
+      </c>
+      <c r="B1" s="103" t="s">
         <v>1524</v>
       </c>
-      <c r="B1" s="103" t="s">
+      <c r="C1" s="103" t="s">
         <v>1525</v>
       </c>
-      <c r="C1" s="103" t="s">
+      <c r="D1" s="103" t="s">
         <v>1526</v>
-      </c>
-      <c r="D1" s="103" t="s">
-        <v>1527</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="104" t="s">
+        <v>1527</v>
+      </c>
+      <c r="B2" s="104" t="s">
         <v>1528</v>
       </c>
-      <c r="B2" s="104" t="s">
+      <c r="C2" s="104" t="s">
         <v>1529</v>
       </c>
-      <c r="C2" s="104" t="s">
+      <c r="D2" s="104" t="s">
         <v>1530</v>
-      </c>
-      <c r="D2" s="104" t="s">
-        <v>1531</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="104" t="s">
-        <v>1528</v>
+        <v>1527</v>
       </c>
       <c r="B3" s="104" t="s">
+        <v>1531</v>
+      </c>
+      <c r="C3" s="104" t="s">
+        <v>1529</v>
+      </c>
+      <c r="D3" s="104" t="s">
         <v>1532</v>
-      </c>
-      <c r="C3" s="104" t="s">
-        <v>1530</v>
-      </c>
-      <c r="D3" s="104" t="s">
-        <v>1533</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="104" t="s">
+        <v>1533</v>
+      </c>
+      <c r="B4" s="104" t="s">
         <v>1534</v>
       </c>
-      <c r="B4" s="104" t="s">
+      <c r="C4" s="104" t="s">
+        <v>1529</v>
+      </c>
+      <c r="D4" s="105" t="s">
         <v>1535</v>
-      </c>
-      <c r="C4" s="104" t="s">
-        <v>1530</v>
-      </c>
-      <c r="D4" s="105" t="s">
-        <v>1536</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="104" t="s">
-        <v>1534</v>
+        <v>1533</v>
       </c>
       <c r="B5" s="104" t="s">
+        <v>1536</v>
+      </c>
+      <c r="C5" s="104" t="s">
+        <v>1529</v>
+      </c>
+      <c r="D5" s="106" t="s">
         <v>1537</v>
-      </c>
-      <c r="C5" s="104" t="s">
-        <v>1530</v>
-      </c>
-      <c r="D5" s="106" t="s">
-        <v>1538</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="107" t="s">
-        <v>1528</v>
+        <v>1527</v>
       </c>
       <c r="B7" s="107" t="s">
+        <v>1538</v>
+      </c>
+      <c r="C7" s="107" t="s">
         <v>1539</v>
       </c>
-      <c r="C7" s="107" t="s">
+      <c r="D7" s="107" t="s">
         <v>1540</v>
-      </c>
-      <c r="D7" s="107" t="s">
-        <v>1541</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="107" t="s">
-        <v>1528</v>
+        <v>1527</v>
       </c>
       <c r="B8" s="107" t="s">
+        <v>1541</v>
+      </c>
+      <c r="C8" s="107" t="s">
+        <v>1539</v>
+      </c>
+      <c r="D8" s="107" t="s">
         <v>1542</v>
-      </c>
-      <c r="C8" s="107" t="s">
-        <v>1540</v>
-      </c>
-      <c r="D8" s="107" t="s">
-        <v>1543</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="107" t="s">
-        <v>1528</v>
+        <v>1527</v>
       </c>
       <c r="B9" s="108" t="s">
+        <v>1543</v>
+      </c>
+      <c r="C9" s="107" t="s">
+        <v>1539</v>
+      </c>
+      <c r="D9" s="107" t="s">
         <v>1544</v>
-      </c>
-      <c r="C9" s="107" t="s">
-        <v>1540</v>
-      </c>
-      <c r="D9" s="107" t="s">
-        <v>1545</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="107" t="s">
-        <v>1534</v>
+        <v>1533</v>
       </c>
       <c r="B10" s="107" t="s">
+        <v>1545</v>
+      </c>
+      <c r="C10" s="107" t="s">
+        <v>1539</v>
+      </c>
+      <c r="D10" s="107" t="s">
         <v>1546</v>
-      </c>
-      <c r="C10" s="107" t="s">
-        <v>1540</v>
-      </c>
-      <c r="D10" s="107" t="s">
-        <v>1547</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="107" t="s">
-        <v>1534</v>
+        <v>1533</v>
       </c>
       <c r="B11" s="107" t="s">
+        <v>1547</v>
+      </c>
+      <c r="C11" s="107" t="s">
+        <v>1539</v>
+      </c>
+      <c r="D11" s="107" t="s">
         <v>1548</v>
-      </c>
-      <c r="C11" s="107" t="s">
-        <v>1540</v>
-      </c>
-      <c r="D11" s="107" t="s">
-        <v>1549</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="107" t="s">
-        <v>1534</v>
+        <v>1533</v>
       </c>
       <c r="B12" s="107" t="s">
+        <v>1549</v>
+      </c>
+      <c r="C12" s="107" t="s">
+        <v>1539</v>
+      </c>
+      <c r="D12" s="107" t="s">
         <v>1550</v>
-      </c>
-      <c r="C12" s="107" t="s">
-        <v>1540</v>
-      </c>
-      <c r="D12" s="107" t="s">
-        <v>1551</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="107" t="s">
-        <v>1534</v>
+        <v>1533</v>
       </c>
       <c r="B13" s="107" t="s">
+        <v>1551</v>
+      </c>
+      <c r="C13" s="107" t="s">
+        <v>1539</v>
+      </c>
+      <c r="D13" s="107" t="s">
         <v>1552</v>
-      </c>
-      <c r="C13" s="107" t="s">
-        <v>1540</v>
-      </c>
-      <c r="D13" s="107" t="s">
-        <v>1553</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="107" t="s">
-        <v>1534</v>
+        <v>1533</v>
       </c>
       <c r="B14" s="107" t="s">
+        <v>1553</v>
+      </c>
+      <c r="C14" s="107" t="s">
+        <v>1539</v>
+      </c>
+      <c r="D14" s="108" t="s">
         <v>1554</v>
-      </c>
-      <c r="C14" s="107" t="s">
-        <v>1540</v>
-      </c>
-      <c r="D14" s="108" t="s">
-        <v>1555</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="107" t="s">
-        <v>1534</v>
+        <v>1533</v>
       </c>
       <c r="B15" s="107" t="s">
+        <v>1555</v>
+      </c>
+      <c r="C15" s="107" t="s">
+        <v>1539</v>
+      </c>
+      <c r="D15" s="107" t="s">
         <v>1556</v>
-      </c>
-      <c r="C15" s="107" t="s">
-        <v>1540</v>
-      </c>
-      <c r="D15" s="107" t="s">
-        <v>1557</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="107" t="s">
-        <v>1534</v>
+        <v>1533</v>
       </c>
       <c r="B16" s="107" t="s">
+        <v>1557</v>
+      </c>
+      <c r="C16" s="107" t="s">
+        <v>1539</v>
+      </c>
+      <c r="D16" s="107" t="s">
         <v>1558</v>
-      </c>
-      <c r="C16" s="107" t="s">
-        <v>1540</v>
-      </c>
-      <c r="D16" s="107" t="s">
-        <v>1559</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="107" t="s">
-        <v>1534</v>
+        <v>1533</v>
       </c>
       <c r="B17" s="107" t="s">
+        <v>1559</v>
+      </c>
+      <c r="C17" s="107" t="s">
+        <v>1539</v>
+      </c>
+      <c r="D17" s="107" t="s">
         <v>1560</v>
-      </c>
-      <c r="C17" s="107" t="s">
-        <v>1540</v>
-      </c>
-      <c r="D17" s="107" t="s">
-        <v>1561</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="107" t="s">
-        <v>1534</v>
+        <v>1533</v>
       </c>
       <c r="B18" s="107" t="s">
+        <v>1561</v>
+      </c>
+      <c r="C18" s="107" t="s">
+        <v>1539</v>
+      </c>
+      <c r="D18" s="107" t="s">
         <v>1562</v>
-      </c>
-      <c r="C18" s="107" t="s">
-        <v>1540</v>
-      </c>
-      <c r="D18" s="107" t="s">
-        <v>1563</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="109" t="s">
-        <v>1528</v>
+        <v>1527</v>
       </c>
       <c r="B20" s="110" t="s">
+        <v>1563</v>
+      </c>
+      <c r="C20" s="109" t="s">
         <v>1564</v>
       </c>
-      <c r="C20" s="109" t="s">
+      <c r="D20" s="109" t="s">
         <v>1565</v>
-      </c>
-      <c r="D20" s="109" t="s">
-        <v>1566</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="109" t="s">
-        <v>1528</v>
+        <v>1527</v>
       </c>
       <c r="B21" s="109" t="s">
         <v>463</v>
       </c>
       <c r="C21" s="109" t="s">
-        <v>1565</v>
+        <v>1564</v>
       </c>
       <c r="D21" s="109" t="s">
-        <v>1567</v>
+        <v>1566</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="109" t="s">
-        <v>1528</v>
+        <v>1527</v>
       </c>
       <c r="B22" s="109" t="s">
         <v>405</v>
       </c>
       <c r="C22" s="109" t="s">
-        <v>1565</v>
+        <v>1564</v>
       </c>
       <c r="D22" s="109" t="s">
-        <v>1568</v>
+        <v>1567</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="109" t="s">
-        <v>1528</v>
+        <v>1527</v>
       </c>
       <c r="B23" s="109" t="s">
+        <v>1568</v>
+      </c>
+      <c r="C23" s="109" t="s">
+        <v>1564</v>
+      </c>
+      <c r="D23" s="109" t="s">
         <v>1569</v>
-      </c>
-      <c r="C23" s="109" t="s">
-        <v>1565</v>
-      </c>
-      <c r="D23" s="109" t="s">
-        <v>1570</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="109" t="s">
-        <v>1528</v>
+        <v>1527</v>
       </c>
       <c r="B24" s="109" t="s">
+        <v>1570</v>
+      </c>
+      <c r="C24" s="109" t="s">
+        <v>1564</v>
+      </c>
+      <c r="D24" s="109" t="s">
         <v>1571</v>
-      </c>
-      <c r="C24" s="109" t="s">
-        <v>1565</v>
-      </c>
-      <c r="D24" s="109" t="s">
-        <v>1572</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="109" t="s">
-        <v>1528</v>
+        <v>1527</v>
       </c>
       <c r="B25" s="109" t="s">
+        <v>1572</v>
+      </c>
+      <c r="C25" s="109" t="s">
+        <v>1564</v>
+      </c>
+      <c r="D25" s="109" t="s">
         <v>1573</v>
-      </c>
-      <c r="C25" s="109" t="s">
-        <v>1565</v>
-      </c>
-      <c r="D25" s="109" t="s">
-        <v>1574</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="109" t="s">
-        <v>1528</v>
+        <v>1527</v>
       </c>
       <c r="B26" s="109" t="s">
+        <v>1574</v>
+      </c>
+      <c r="C26" s="109" t="s">
+        <v>1564</v>
+      </c>
+      <c r="D26" s="109" t="s">
         <v>1575</v>
-      </c>
-      <c r="C26" s="109" t="s">
-        <v>1565</v>
-      </c>
-      <c r="D26" s="109" t="s">
-        <v>1576</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="109" t="s">
-        <v>1528</v>
+        <v>1527</v>
       </c>
       <c r="B27" s="109" t="s">
         <v>51</v>
       </c>
       <c r="C27" s="109" t="s">
-        <v>1565</v>
+        <v>1564</v>
       </c>
       <c r="D27" s="109" t="s">
-        <v>1577</v>
+        <v>1576</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="109" t="s">
-        <v>1528</v>
+        <v>1527</v>
       </c>
       <c r="B28" s="109" t="s">
+        <v>1577</v>
+      </c>
+      <c r="C28" s="109" t="s">
+        <v>1564</v>
+      </c>
+      <c r="D28" s="109" t="s">
         <v>1578</v>
-      </c>
-      <c r="C28" s="109" t="s">
-        <v>1565</v>
-      </c>
-      <c r="D28" s="109" t="s">
-        <v>1579</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="109" t="s">
-        <v>1528</v>
+        <v>1527</v>
       </c>
       <c r="B29" s="109" t="s">
+        <v>1579</v>
+      </c>
+      <c r="C29" s="109" t="s">
+        <v>1564</v>
+      </c>
+      <c r="D29" s="109" t="s">
         <v>1580</v>
-      </c>
-      <c r="C29" s="109" t="s">
-        <v>1565</v>
-      </c>
-      <c r="D29" s="109" t="s">
-        <v>1581</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="109" t="s">
-        <v>1534</v>
+        <v>1533</v>
       </c>
       <c r="B30" s="109" t="s">
+        <v>1581</v>
+      </c>
+      <c r="C30" s="109" t="s">
+        <v>1564</v>
+      </c>
+      <c r="D30" s="109" t="s">
         <v>1582</v>
-      </c>
-      <c r="C30" s="109" t="s">
-        <v>1565</v>
-      </c>
-      <c r="D30" s="109" t="s">
-        <v>1583</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="109" t="s">
-        <v>1534</v>
+        <v>1533</v>
       </c>
       <c r="B31" s="109" t="s">
         <v>600</v>
       </c>
       <c r="C31" s="109" t="s">
-        <v>1565</v>
+        <v>1564</v>
       </c>
       <c r="D31" s="109" t="s">
-        <v>1584</v>
+        <v>1583</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="109" t="s">
-        <v>1534</v>
+        <v>1533</v>
       </c>
       <c r="B32" s="109" t="s">
+        <v>1584</v>
+      </c>
+      <c r="C32" s="109" t="s">
+        <v>1564</v>
+      </c>
+      <c r="D32" s="110" t="s">
         <v>1585</v>
-      </c>
-      <c r="C32" s="109" t="s">
-        <v>1565</v>
-      </c>
-      <c r="D32" s="110" t="s">
-        <v>1586</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="109" t="s">
-        <v>1534</v>
+        <v>1533</v>
       </c>
       <c r="B33" s="109" t="s">
+        <v>1586</v>
+      </c>
+      <c r="C33" s="109" t="s">
+        <v>1564</v>
+      </c>
+      <c r="D33" s="109" t="s">
         <v>1587</v>
-      </c>
-      <c r="C33" s="109" t="s">
-        <v>1565</v>
-      </c>
-      <c r="D33" s="109" t="s">
-        <v>1588</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="109" t="s">
-        <v>1534</v>
+        <v>1533</v>
       </c>
       <c r="B34" s="109" t="s">
+        <v>1588</v>
+      </c>
+      <c r="C34" s="109" t="s">
+        <v>1564</v>
+      </c>
+      <c r="D34" s="110" t="s">
         <v>1589</v>
-      </c>
-      <c r="C34" s="109" t="s">
-        <v>1565</v>
-      </c>
-      <c r="D34" s="110" t="s">
-        <v>1590</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="109" t="s">
-        <v>1534</v>
+        <v>1533</v>
       </c>
       <c r="B35" s="109" t="s">
+        <v>1590</v>
+      </c>
+      <c r="C35" s="109" t="s">
+        <v>1564</v>
+      </c>
+      <c r="D35" s="110" t="s">
         <v>1591</v>
-      </c>
-      <c r="C35" s="109" t="s">
-        <v>1565</v>
-      </c>
-      <c r="D35" s="110" t="s">
-        <v>1592</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="109" t="s">
-        <v>1534</v>
+        <v>1533</v>
       </c>
       <c r="B36" s="109" t="s">
-        <v>1589</v>
+        <v>1588</v>
       </c>
       <c r="C36" s="109" t="s">
-        <v>1565</v>
+        <v>1564</v>
       </c>
       <c r="D36" s="109" t="s">
-        <v>1593</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="109" t="s">
-        <v>1534</v>
+        <v>1533</v>
       </c>
       <c r="B37" s="109" t="s">
+        <v>1593</v>
+      </c>
+      <c r="C37" s="109" t="s">
+        <v>1564</v>
+      </c>
+      <c r="D37" s="110" t="s">
         <v>1594</v>
-      </c>
-      <c r="C37" s="109" t="s">
-        <v>1565</v>
-      </c>
-      <c r="D37" s="110" t="s">
-        <v>1595</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="109" t="s">
-        <v>1534</v>
+        <v>1533</v>
       </c>
       <c r="B38" s="109" t="s">
-        <v>1575</v>
+        <v>1574</v>
       </c>
       <c r="C38" s="109" t="s">
-        <v>1565</v>
+        <v>1564</v>
       </c>
       <c r="D38" s="110" t="s">
-        <v>1596</v>
+        <v>1595</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="111" t="s">
-        <v>1528</v>
+        <v>1527</v>
       </c>
       <c r="B40" s="112" t="s">
+        <v>1596</v>
+      </c>
+      <c r="C40" s="111" t="s">
         <v>1597</v>
       </c>
-      <c r="C40" s="111" t="s">
+      <c r="D40" s="112" t="s">
         <v>1598</v>
-      </c>
-      <c r="D40" s="112" t="s">
-        <v>1599</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="111" t="s">
-        <v>1528</v>
+        <v>1527</v>
       </c>
       <c r="B41" s="112" t="s">
+        <v>1599</v>
+      </c>
+      <c r="C41" s="111" t="s">
+        <v>1597</v>
+      </c>
+      <c r="D41" s="111" t="s">
         <v>1600</v>
-      </c>
-      <c r="C41" s="111" t="s">
-        <v>1598</v>
-      </c>
-      <c r="D41" s="111" t="s">
-        <v>1601</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="111" t="s">
-        <v>1534</v>
+        <v>1533</v>
       </c>
       <c r="B42" s="112" t="s">
+        <v>1601</v>
+      </c>
+      <c r="C42" s="111" t="s">
+        <v>1597</v>
+      </c>
+      <c r="D42" s="111" t="s">
         <v>1602</v>
-      </c>
-      <c r="C42" s="111" t="s">
-        <v>1598</v>
-      </c>
-      <c r="D42" s="111" t="s">
-        <v>1603</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="111" t="s">
-        <v>1534</v>
+        <v>1533</v>
       </c>
       <c r="B43" s="112" t="s">
+        <v>1603</v>
+      </c>
+      <c r="C43" s="111" t="s">
+        <v>1597</v>
+      </c>
+      <c r="D43" s="112" t="s">
         <v>1604</v>
-      </c>
-      <c r="C43" s="111" t="s">
-        <v>1598</v>
-      </c>
-      <c r="D43" s="112" t="s">
-        <v>1605</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="111" t="s">
-        <v>1534</v>
+        <v>1533</v>
       </c>
       <c r="B44" s="112" t="s">
+        <v>1605</v>
+      </c>
+      <c r="C44" s="111" t="s">
+        <v>1597</v>
+      </c>
+      <c r="D44" s="112" t="s">
         <v>1606</v>
-      </c>
-      <c r="C44" s="111" t="s">
-        <v>1598</v>
-      </c>
-      <c r="D44" s="112" t="s">
-        <v>1607</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="111" t="s">
-        <v>1534</v>
+        <v>1533</v>
       </c>
       <c r="B45" s="112" t="s">
+        <v>1607</v>
+      </c>
+      <c r="C45" s="111" t="s">
+        <v>1597</v>
+      </c>
+      <c r="D45" s="112" t="s">
         <v>1608</v>
-      </c>
-      <c r="C45" s="111" t="s">
-        <v>1598</v>
-      </c>
-      <c r="D45" s="112" t="s">
-        <v>1609</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="111" t="s">
-        <v>1534</v>
+        <v>1533</v>
       </c>
       <c r="B46" s="112" t="s">
+        <v>1609</v>
+      </c>
+      <c r="C46" s="111" t="s">
+        <v>1597</v>
+      </c>
+      <c r="D46" s="112" t="s">
         <v>1610</v>
-      </c>
-      <c r="C46" s="111" t="s">
-        <v>1598</v>
-      </c>
-      <c r="D46" s="112" t="s">
-        <v>1611</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="111" t="s">
-        <v>1534</v>
+        <v>1533</v>
       </c>
       <c r="B47" s="112" t="s">
+        <v>1611</v>
+      </c>
+      <c r="C47" s="111" t="s">
+        <v>1597</v>
+      </c>
+      <c r="D47" s="111" t="s">
         <v>1612</v>
-      </c>
-      <c r="C47" s="111" t="s">
-        <v>1598</v>
-      </c>
-      <c r="D47" s="111" t="s">
-        <v>1613</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="113" t="s">
-        <v>1528</v>
+        <v>1527</v>
       </c>
       <c r="B49" s="113" t="s">
+        <v>1613</v>
+      </c>
+      <c r="C49" s="113" t="s">
         <v>1614</v>
       </c>
-      <c r="C49" s="113" t="s">
+      <c r="D49" s="113" t="s">
         <v>1615</v>
-      </c>
-      <c r="D49" s="113" t="s">
-        <v>1616</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="113" t="s">
-        <v>1528</v>
+        <v>1527</v>
       </c>
       <c r="B50" s="113" t="s">
+        <v>1616</v>
+      </c>
+      <c r="C50" s="113" t="s">
+        <v>1614</v>
+      </c>
+      <c r="D50" s="114" t="s">
         <v>1617</v>
-      </c>
-      <c r="C50" s="113" t="s">
-        <v>1615</v>
-      </c>
-      <c r="D50" s="114" t="s">
-        <v>1618</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="113" t="s">
-        <v>1528</v>
+        <v>1527</v>
       </c>
       <c r="B51" s="113" t="s">
+        <v>1618</v>
+      </c>
+      <c r="C51" s="113" t="s">
+        <v>1614</v>
+      </c>
+      <c r="D51" s="114" t="s">
         <v>1619</v>
-      </c>
-      <c r="C51" s="113" t="s">
-        <v>1615</v>
-      </c>
-      <c r="D51" s="114" t="s">
-        <v>1620</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="113" t="s">
-        <v>1528</v>
+        <v>1527</v>
       </c>
       <c r="B52" s="113" t="s">
+        <v>1620</v>
+      </c>
+      <c r="C52" s="113" t="s">
+        <v>1614</v>
+      </c>
+      <c r="D52" s="114" t="s">
         <v>1621</v>
-      </c>
-      <c r="C52" s="113" t="s">
-        <v>1615</v>
-      </c>
-      <c r="D52" s="114" t="s">
-        <v>1622</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="113" t="s">
-        <v>1528</v>
+        <v>1527</v>
       </c>
       <c r="B53" s="113" t="s">
+        <v>1622</v>
+      </c>
+      <c r="C53" s="113" t="s">
+        <v>1614</v>
+      </c>
+      <c r="D53" s="113" t="s">
         <v>1623</v>
-      </c>
-      <c r="C53" s="113" t="s">
-        <v>1615</v>
-      </c>
-      <c r="D53" s="113" t="s">
-        <v>1624</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="113" t="s">
-        <v>1534</v>
+        <v>1533</v>
       </c>
       <c r="B54" s="113" t="s">
+        <v>1624</v>
+      </c>
+      <c r="C54" s="113" t="s">
+        <v>1614</v>
+      </c>
+      <c r="D54" s="114" t="s">
         <v>1625</v>
-      </c>
-      <c r="C54" s="113" t="s">
-        <v>1615</v>
-      </c>
-      <c r="D54" s="114" t="s">
-        <v>1626</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="113" t="s">
-        <v>1534</v>
+        <v>1533</v>
       </c>
       <c r="B55" s="113" t="s">
+        <v>1626</v>
+      </c>
+      <c r="C55" s="113" t="s">
+        <v>1614</v>
+      </c>
+      <c r="D55" s="114" t="s">
         <v>1627</v>
-      </c>
-      <c r="C55" s="113" t="s">
-        <v>1615</v>
-      </c>
-      <c r="D55" s="114" t="s">
-        <v>1628</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="113" t="s">
-        <v>1534</v>
+        <v>1533</v>
       </c>
       <c r="B56" s="113" t="s">
+        <v>1628</v>
+      </c>
+      <c r="C56" s="113" t="s">
+        <v>1614</v>
+      </c>
+      <c r="D56" s="114" t="s">
         <v>1629</v>
-      </c>
-      <c r="C56" s="113" t="s">
-        <v>1615</v>
-      </c>
-      <c r="D56" s="114" t="s">
-        <v>1630</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="113" t="s">
-        <v>1534</v>
+        <v>1533</v>
       </c>
       <c r="B57" s="113" t="s">
+        <v>1630</v>
+      </c>
+      <c r="C57" s="113" t="s">
+        <v>1614</v>
+      </c>
+      <c r="D57" s="113" t="s">
         <v>1631</v>
-      </c>
-      <c r="C57" s="113" t="s">
-        <v>1615</v>
-      </c>
-      <c r="D57" s="113" t="s">
-        <v>1632</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="113" t="s">
-        <v>1534</v>
+        <v>1533</v>
       </c>
       <c r="B58" s="113" t="s">
+        <v>1632</v>
+      </c>
+      <c r="C58" s="113" t="s">
+        <v>1614</v>
+      </c>
+      <c r="D58" s="114" t="s">
         <v>1633</v>
-      </c>
-      <c r="C58" s="113" t="s">
-        <v>1615</v>
-      </c>
-      <c r="D58" s="114" t="s">
-        <v>1634</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="113" t="s">
-        <v>1534</v>
+        <v>1533</v>
       </c>
       <c r="B59" s="113" t="s">
         <v>51</v>
       </c>
       <c r="C59" s="113" t="s">
-        <v>1615</v>
+        <v>1614</v>
       </c>
       <c r="D59" s="114" t="s">
-        <v>1635</v>
+        <v>1634</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="113" t="s">
-        <v>1534</v>
+        <v>1533</v>
       </c>
       <c r="B60" s="113" t="s">
+        <v>1635</v>
+      </c>
+      <c r="C60" s="113" t="s">
+        <v>1614</v>
+      </c>
+      <c r="D60" s="114" t="s">
         <v>1636</v>
-      </c>
-      <c r="C60" s="113" t="s">
-        <v>1615</v>
-      </c>
-      <c r="D60" s="114" t="s">
-        <v>1637</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="113" t="s">
-        <v>1534</v>
+        <v>1533</v>
       </c>
       <c r="B61" s="113" t="s">
+        <v>1637</v>
+      </c>
+      <c r="C61" s="113" t="s">
+        <v>1614</v>
+      </c>
+      <c r="D61" s="114" t="s">
         <v>1638</v>
-      </c>
-      <c r="C61" s="113" t="s">
-        <v>1615</v>
-      </c>
-      <c r="D61" s="114" t="s">
-        <v>1639</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="113" t="s">
-        <v>1534</v>
+        <v>1533</v>
       </c>
       <c r="B62" s="113" t="s">
+        <v>1639</v>
+      </c>
+      <c r="C62" s="113" t="s">
+        <v>1614</v>
+      </c>
+      <c r="D62" s="114" t="s">
         <v>1640</v>
-      </c>
-      <c r="C62" s="113" t="s">
-        <v>1615</v>
-      </c>
-      <c r="D62" s="114" t="s">
-        <v>1641</v>
       </c>
     </row>
   </sheetData>
